--- a/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - tariffs.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - tariffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_a_wholesale_calculation\when_minimal_standard_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{880A02A3-FC19-4437-A11E-3DD2C9E059F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D96D58A-1045-44CB-AE2B-825190D5031A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="25780" windowHeight="20970" xr2:uid="{029705A5-E2D6-4928-9AB0-F32087606243}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{029705A5-E2D6-4928-9AB0-F32087606243}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
-  <si>
-    <t>charge_link</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="116">
   <si>
     <t>charge_price</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>170000000000000101</t>
   </si>
   <si>
@@ -56,24 +50,9 @@
     <t>tariff</t>
   </si>
   <si>
-    <t>tariff-hourly-2-co_6660000000001</t>
-  </si>
-  <si>
-    <t>tariff-hourly-3-co_6660000000002</t>
-  </si>
-  <si>
-    <t>tariff-hourly-4-co_is_tax</t>
-  </si>
-  <si>
     <t>6660000000001</t>
   </si>
   <si>
-    <t>6660000000002</t>
-  </si>
-  <si>
-    <t>6660000000666</t>
-  </si>
-  <si>
     <t>180000000000000001</t>
   </si>
   <si>
@@ -84,14 +63,336 @@
   </si>
   <si>
     <t>170000000000000201</t>
+  </si>
+  <si>
+    <t>charge_code</t>
+  </si>
+  <si>
+    <t>charge_type</t>
+  </si>
+  <si>
+    <t>charge_owner_id</t>
+  </si>
+  <si>
+    <t>metering_point_id</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Charge links</t>
+  </si>
+  <si>
+    <t>resolution</t>
+  </si>
+  <si>
+    <t>is_tax</t>
+  </si>
+  <si>
+    <t>fee-1-co_7770000000001</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>fee-2-co_7770000000001</t>
+  </si>
+  <si>
+    <t>fee-3-co_7770000000002</t>
+  </si>
+  <si>
+    <t>subscription-1-co_5550000000001</t>
+  </si>
+  <si>
+    <t>subscription</t>
+  </si>
+  <si>
+    <t>subscription-2-co_5550000000001</t>
+  </si>
+  <si>
+    <t>subscription-3-co_5550000000002</t>
+  </si>
+  <si>
+    <t>PT1H</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>PT15M</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>D09</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>170000000150001000</t>
+  </si>
+  <si>
+    <t>180000000150001000</t>
+  </si>
+  <si>
+    <t>070000000000170201</t>
+  </si>
+  <si>
+    <t>170000000000000102</t>
+  </si>
+  <si>
+    <t>200000000000000001</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>calculation_type</t>
+  </si>
+  <si>
+    <t>settlement_method</t>
+  </si>
+  <si>
+    <t>grid_area_code</t>
+  </si>
+  <si>
+    <t>from_grid_area_code</t>
+  </si>
+  <si>
+    <t>to_grid_area_code</t>
+  </si>
+  <si>
+    <t>parent_metering_point_id</t>
+  </si>
+  <si>
+    <t>energy_supplier_id</t>
+  </si>
+  <si>
+    <t>balance_responsible_id</t>
+  </si>
+  <si>
+    <t>1000000000000</t>
+  </si>
+  <si>
+    <t>2000000000000</t>
+  </si>
+  <si>
+    <t>3000000000000</t>
+  </si>
+  <si>
+    <t>4000000000000</t>
+  </si>
+  <si>
+    <t>1100000000000</t>
+  </si>
+  <si>
+    <t>2200000000000</t>
+  </si>
+  <si>
+    <t>3300000000000</t>
+  </si>
+  <si>
+    <t>4400000000000</t>
+  </si>
+  <si>
+    <t>metering_point_type</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>MP type mapping</t>
+  </si>
+  <si>
+    <t>consumption</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>own_production</t>
+  </si>
+  <si>
+    <t>consumption_from_grid</t>
+  </si>
+  <si>
+    <t>Settlement method mapping</t>
+  </si>
+  <si>
+    <t>flex</t>
+  </si>
+  <si>
+    <t>non_profiled</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>observation_time</t>
+  </si>
+  <si>
+    <t>Time Series Points</t>
+  </si>
+  <si>
+    <t>measured</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>070000000000000201</t>
+  </si>
+  <si>
+    <t>charge_time</t>
+  </si>
+  <si>
+    <t>2023-02-01 23:00:00.000000</t>
+  </si>
+  <si>
+    <t>2023-02-02 23:00:00.000000</t>
+  </si>
+  <si>
+    <t>2023-01-31 23:00:00.000000</t>
+  </si>
+  <si>
+    <t>2023-02-01 00:00:00.000000</t>
+  </si>
+  <si>
+    <t>2023-02-01 02:00:00.000000</t>
+  </si>
+  <si>
+    <t>7770000000001</t>
+  </si>
+  <si>
+    <t>7770000000002</t>
+  </si>
+  <si>
+    <t>5550000000001</t>
+  </si>
+  <si>
+    <t>5550000000002</t>
+  </si>
+  <si>
+    <t>Charge Price Points</t>
+  </si>
+  <si>
+    <t>2023-01-31 23:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 01:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 02:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 03:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 04:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 05:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 06:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 07:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 08:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 09:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 10:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 11:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 12:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 13:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 14:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 15:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 16:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 17:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 18:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 19:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 20:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 21:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 22:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 02:15:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 02:30:00</t>
+  </si>
+  <si>
+    <t>2023-02-01 02:45:00</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>charge_time_shortened</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -122,18 +423,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="29">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -144,6 +535,138 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}" name="ChargeLinks" displayName="ChargeLinks" ref="A31:I55" totalsRowShown="0" headerRowDxfId="28">
+  <autoFilter ref="A31:I55" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{5D866E37-33E8-4772-8058-91EEF8C237C2}" name="charge_code" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{490CB0A2-0EF8-4653-8A5E-9B8094165BDC}" name="charge_type" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{7135A3A1-5051-429E-8261-8AB31A739FB5}" name="charge_owner_id" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{5C6B43BE-2B8F-4A1F-BF82-B40970FE2DC5}" name="metering_point_id" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{59F6ECAA-71F3-40FF-846D-92E4C6D2132D}" name="quantity" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{3847870A-615B-48A2-A325-CD1C7BAED26A}" name="energy_supplier_id" dataDxfId="5">
+      <calculatedColumnFormula>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{58B714A4-DCC0-4728-99C2-D5D8472B5530}" name="metering_point_type" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{76EB7E81-9D94-4902-9DF2-1A4EF371DAF0}" name="settlement_method" dataDxfId="2">
+      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{A2CD103B-C1B7-45F8-A620-EBFFDBF64097}" name="Column1" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C8F0617-F039-41D8-8DF9-B9925F5FD292}" name="TimeSeriesPoints" displayName="TimeSeriesPoints" ref="M2:P26" totalsRowShown="0">
+  <autoFilter ref="M2:P26" xr:uid="{3C8F0617-F039-41D8-8DF9-B9925F5FD292}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{ED5AEA4E-C692-4374-B1CE-C8D8084741D8}" name="metering_point_id"/>
+    <tableColumn id="2" xr3:uid="{DBE4F15E-E8C9-4215-9F8E-1B98001B79C1}" name="quantity" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{D9F5ACD6-F0C4-4862-A8B2-60E7B62AC08B}" name="quality"/>
+    <tableColumn id="4" xr3:uid="{920B490A-353A-458C-88EB-A4C7A92A30BF}" name="observation_time" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}" name="OutPut" displayName="OutPut" ref="A2:K26" totalsRowShown="0">
+  <autoFilter ref="A2:K26" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{109EE6E5-BD25-4474-8D01-F9BE53E316BF}" name="Time" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{0DDB3581-9EFD-4CD5-A5E4-AA25CC64A8EA}" name="grid_area_code">
+      <calculatedColumnFormula>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{9ECD4A31-B204-4AAA-BCE0-A55479D4D6F9}" name="energy_supplier_id">
+      <calculatedColumnFormula>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{08094514-49A8-4D25-A69E-A75EB3232592}" name="quantity">
+      <calculatedColumnFormula>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{88D10A42-9475-42BD-ADCA-A3FFA72BC973}" name="resolution">
+      <calculatedColumnFormula>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A3DD608C-4E56-40B0-B1F7-95AC815014A7}" name="metering_point_type">
+      <calculatedColumnFormula>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{FBD9FA55-93F5-4E1A-96F5-ED949010179F}" name="settlement_method">
+      <calculatedColumnFormula>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{9932B718-7F22-4D96-BEE4-F0152DC66C3C}" name="price">
+      <calculatedColumnFormula>SUBSTITUTE($H$30,",",".")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E64C45EC-3ECC-46FF-85E7-A6E4C66A6B05}" name="amount"/>
+    <tableColumn id="10" xr3:uid="{0EF4D2F5-DCAF-46F8-9394-603FD6C1F55C}" name="is_tax"/>
+    <tableColumn id="11" xr3:uid="{DBC31B41-AB04-4AC3-9F13-BFC4F3EEAA92}" name="charge_code"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CC8E1B98-9587-45C5-95FD-F3B94687A50B}" name="ChargePricePoints" displayName="ChargePricePoints" ref="R2:W26" totalsRowShown="0">
+  <autoFilter ref="R2:W26" xr:uid="{CC8E1B98-9587-45C5-95FD-F3B94687A50B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{69DFFE3D-C209-469C-93C2-67D70897CECD}" name="charge_code"/>
+    <tableColumn id="2" xr3:uid="{C2BA6440-DC16-4F9B-96BE-A9A0F237B7ED}" name="charge_type"/>
+    <tableColumn id="3" xr3:uid="{DE42A2CB-11DB-40C9-972F-4996A60A2655}" name="charge_owner_id" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{C462E5E9-79F8-4B90-AE92-B40FC6B4334A}" name="charge_price"/>
+    <tableColumn id="5" xr3:uid="{C24479F8-FACC-4841-9EBA-38DC21F5176A}" name="charge_time" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{95636D1A-8B9F-4BA2-BBFA-C07691BB959D}" name="charge_time_shortened" dataDxfId="17">
+      <calculatedColumnFormula>LEFT(V3,19)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C23C94B-085F-44ED-9C29-B56B92F1B82F}" name="MeteringPointPeriods" displayName="MeteringPointPeriods" ref="L31:V56" totalsRowShown="0">
+  <autoFilter ref="L31:V56" xr:uid="{9C23C94B-085F-44ED-9C29-B56B92F1B82F}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{BDDD221E-D8D0-4820-9E79-C550EEFB1552}" name="metering_point_id" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{3264101E-B7CE-433E-95D3-ECAF67C4B197}" name="type" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{7C0D9AD3-5F1E-4528-9C99-D7C9C0B81870}" name="calculation_type" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{A7E122D3-3055-4D9F-A63D-DBCBA9074AEF}" name="settlement_method" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{BDA72DCA-8178-4B49-AC99-64FE311CA920}" name="grid_area_code" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{7C4FD7ED-486D-43F5-8209-FB7F4E50B817}" name="resolution" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{EA876C75-481F-4F0C-BFAD-2B6485E386C9}" name="from_grid_area_code" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{DDADF541-4D21-429F-AD29-34F72E0F5DB0}" name="to_grid_area_code" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{6873E7DA-25ED-4F63-9CC3-142EBFD5C96C}" name="parent_metering_point_id" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{5E7B70BE-3917-4AE6-83EA-8A871F97FB99}" name="energy_supplier_id" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{BE1BF5F2-4168-4BEC-B68C-E044D0519557}" name="balance_responsible_id" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4D9288B3-D090-4897-AD89-5C04D501F267}" name="MPTypeMapping" displayName="MPTypeMapping" ref="Y31:Z57" totalsRowShown="0">
+  <autoFilter ref="Y31:Z57" xr:uid="{4D9288B3-D090-4897-AD89-5C04D501F267}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7A432737-3E15-4ECB-BE3F-D5902A6BDC2B}" name="MP type mapping" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FDB8F8B6-CF45-4A18-8759-8120EBE28034}" name="Column1" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{78218855-94F9-4AAF-B51E-818503732FDE}" name="SettlementMapping" displayName="SettlementMapping" ref="Y27:Z29" totalsRowShown="0">
+  <autoFilter ref="Y27:Z29" xr:uid="{78218855-94F9-4AAF-B51E-818503732FDE}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{09776318-E643-49BC-83B0-C37A38FFE072}" name="Settlement method mapping"/>
+    <tableColumn id="2" xr3:uid="{D6412985-2D80-4076-945F-216E94C8E760}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,323 +986,2702 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70CB6AB-141A-4E8A-8579-9357A3BEFD45}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" customWidth="1"/>
+    <col min="7" max="7" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.08984375" customWidth="1"/>
+    <col min="13" max="13" width="30.08984375" customWidth="1"/>
+    <col min="14" max="14" width="15.08984375" customWidth="1"/>
+    <col min="15" max="15" width="12.36328125" customWidth="1"/>
+    <col min="16" max="16" width="19.6328125" customWidth="1"/>
+    <col min="17" max="17" width="17.54296875" customWidth="1"/>
+    <col min="18" max="18" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" customWidth="1"/>
+    <col min="20" max="20" width="21.7265625" customWidth="1"/>
+    <col min="21" max="21" width="13.26953125" customWidth="1"/>
+    <col min="22" max="22" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.81640625" customWidth="1"/>
+    <col min="25" max="25" width="25.54296875" customWidth="1"/>
+    <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="R1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="V2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E3" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F3" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="N3" s="3">
+        <v>10</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" s="1" t="str">
+        <f>LEFT(V3,19)</f>
+        <v>2023-02-01 23:00:00</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="E4" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F4" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="N4" s="3">
+        <v>10</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4">
+        <v>30</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" s="1" t="str">
+        <f t="shared" ref="W4:W26" si="0">LEFT(V4,19)</f>
+        <v>2023-02-02 23:00:00</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>44957.958333333336</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E5" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F5" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5">
+        <v>30</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02 23:00:00</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F6" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6">
+        <v>7.9989999999999997</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U6">
+        <v>20</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02 23:00:00</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F7" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-01-31 23:00:00</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F8" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-01-31 23:00:00</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F9" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="3">
+        <v>10</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-01-31 23:00:00</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F10" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="3">
+        <v>5</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>44958.041666666664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>44958.083333333336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>44958.125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>44958.166666666664</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>44958.208333333336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>44958.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>44958.291666666664</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>44958.333333333336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>44958.375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>44958.416666666664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>44958.458333333336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>44958.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>44958.541666666664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>44958.583333333336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>44958.625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>44958.666666666664</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>44958.708333333336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>44958.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>44958.791666666664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>44958.833333333336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>44958.875</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>44958.916666666664</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="V10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-01-31 23:00:00</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F11" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3357</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B29" t="s">
+      <c r="U11">
+        <v>0.1</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01 00:00:00</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F12" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ref="H4:H26" si="1">SUBSTITUTE($H$30,",",".")</f>
+        <v/>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="N12">
+        <v>19.158999999999999</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W12" s="1" t="str">
+        <f>LEFT(V12,19)</f>
+        <v>2023-02-01 02:00:00</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C13" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F13" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="P13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C14" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F14" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="P14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C15" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F15" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="P15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C16" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F16" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G16" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="P16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C17" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F17" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="P17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C18" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F18" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="P18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C19" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F19" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="P19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F20" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="P20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C21" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D21" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F21" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="P21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C22" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F22" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G22" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="P22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C23" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F23" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="P23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C24" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D24" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F24" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G24" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="P24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C25" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D25" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E25" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F25" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="P25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26">
+        <f>VLOOKUP($B$1,$L$31:$V$56,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="C26" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,10,FALSE)</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="D26" t="str">
+        <f>VLOOKUP($B$1,$D$32:$E$55,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E26" t="str">
+        <f>VLOOKUP($B$1,$L$31:$V$56,6,FALSE)</f>
+        <v>PT1H</v>
+      </c>
+      <c r="F26" t="e">
+        <f>VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,2,FALSE),$V$28:$W$54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" t="str">
+        <f>IF(VLOOKUP($B$1,$L$31:$V$56,2,FALSE)="E17",VLOOKUP(VLOOKUP($B$1,$L$31:$V$56,4,FALSE),$Y$28:$Z$29,2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="P26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Y27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Y28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="H29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA29" s="2"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" t="s">
+        <v>40</v>
+      </c>
+      <c r="O31" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>15</v>
+      </c>
+      <c r="R31" t="s">
+        <v>43</v>
+      </c>
+      <c r="S31" t="s">
+        <v>44</v>
+      </c>
+      <c r="T31" t="s">
+        <v>45</v>
+      </c>
+      <c r="U31" t="s">
+        <v>46</v>
+      </c>
+      <c r="V31" t="s">
+        <v>47</v>
+      </c>
+      <c r="X31" s="2"/>
+      <c r="Y31" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA31" s="2"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E29">
+      <c r="C32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="E32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="G32" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v>consumption</v>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v>tariff-hourly-1-co_6660000000001--6660000000001--3000000000000--consumption--non_profiled</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" s="2">
+        <v>800</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X32" s="2"/>
+      <c r="Y32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA32" s="2"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v>3000000000000</v>
+      </c>
+      <c r="G33" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v>consumption</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v>non_profiled</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v>tariff-hourly-1-co_6660000000001--6660000000001--3000000000000--consumption--non_profiled</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2">
+        <v>800</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA33" s="2"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="L34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" s="2">
+        <v>800</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA34" s="2"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="L35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2">
+        <v>800</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA35" s="2"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="L36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P36" s="2">
+        <v>800</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="L37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P37" s="2">
+        <v>800</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G38" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="M38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2">
+        <v>800</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G39" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
+      <c r="M39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2">
+        <v>800</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G40" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I40" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
+      <c r="M40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2">
+        <v>800</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G41" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2">
+        <v>801</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R41" s="2">
+        <v>801</v>
+      </c>
+      <c r="S41" s="2">
+        <v>800</v>
+      </c>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G42" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I42" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G43" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I43" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G44" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I44" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G45" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I45" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G46" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I46" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G47" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I47" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G48" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G49" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I49" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G50" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I50" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G51" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I51" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G52" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I52" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G53" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I53" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G54" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I54" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v/>
+      </c>
+      <c r="G55" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I55" s="5" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v/>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+    </row>
+    <row r="65" spans="10:27" x14ac:dyDescent="0.35">
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+    </row>
+    <row r="66" spans="10:27" x14ac:dyDescent="0.35">
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="2">
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="R1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="7">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - tariffs.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - tariffs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_a_wholesale_calculation\when_minimal_standard_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C11B59-F57F-409D-95A6-C699E757ED8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0E5760-75F3-44DE-A328-60D09737B9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{029705A5-E2D6-4928-9AB0-F32087606243}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{029705A5-E2D6-4928-9AB0-F32087606243}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,12 @@
     <sheet name="ChargePriceInformationPeriods" sheetId="3" r:id="rId5"/>
     <sheet name="ChargeLinks" sheetId="2" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="gridLoss1H_quarter1" localSheetId="2">TimeSeriesPoints!$H$66</definedName>
+    <definedName name="gridLoss1H_quarter2" localSheetId="2">TimeSeriesPoints!$H$67</definedName>
+    <definedName name="gridLoss1H_quarter3" localSheetId="2">TimeSeriesPoints!$H$68</definedName>
+    <definedName name="gridLoss1H_quarter4" localSheetId="2">TimeSeriesPoints!$H$69</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="121">
   <si>
     <t>charge_price</t>
   </si>
@@ -368,9 +374,6 @@
     <t>tariff-hourly-3-co_6660000000002</t>
   </si>
   <si>
-    <t>PT1D</t>
-  </si>
-  <si>
     <t>tariff-hourly-4-co_is_tax</t>
   </si>
   <si>
@@ -426,6 +429,9 @@
   </si>
   <si>
     <t>tariff-hourly-3-co_6660000000002--6660000000002--2000000000000--production</t>
+  </si>
+  <si>
+    <t>OutputCombination</t>
   </si>
 </sst>
 </file>
@@ -435,7 +441,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -489,23 +495,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="56">
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -514,25 +514,22 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -574,46 +571,7 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -649,21 +607,6 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -677,9 +620,42 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -697,10 +673,46 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -725,48 +737,48 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}" name="OutPut" displayName="OutPut" ref="B4:U28" totalsRowShown="0">
   <autoFilter ref="B4:U28" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}"/>
   <tableColumns count="20">
-    <tableColumn id="17" xr3:uid="{F4A59025-41CA-47AD-952B-2428959E8A50}" name="calculation_id" dataDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{F095173D-E1DC-4697-B288-D95D5945D253}" name="calculation_type" dataDxfId="18"/>
-    <tableColumn id="19" xr3:uid="{2C01FBCF-AEED-47E5-874A-D9CB2BD9D409}" name="calculation_execution_time_start" dataDxfId="16"/>
-    <tableColumn id="20" xr3:uid="{37341BB6-4D32-46E1-825A-6DF5D1A0D770}" name="calculation_result_id" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{0DDB3581-9EFD-4CD5-A5E4-AA25CC64A8EA}" name="grid_area_code" dataDxfId="55">
+    <tableColumn id="17" xr3:uid="{F4A59025-41CA-47AD-952B-2428959E8A50}" name="calculation_id" dataDxfId="55"/>
+    <tableColumn id="18" xr3:uid="{F095173D-E1DC-4697-B288-D95D5945D253}" name="calculation_type" dataDxfId="54"/>
+    <tableColumn id="19" xr3:uid="{2C01FBCF-AEED-47E5-874A-D9CB2BD9D409}" name="calculation_execution_time_start" dataDxfId="53"/>
+    <tableColumn id="20" xr3:uid="{37341BB6-4D32-46E1-825A-6DF5D1A0D770}" name="calculation_result_id" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{0DDB3581-9EFD-4CD5-A5E4-AA25CC64A8EA}" name="grid_area_code" dataDxfId="51">
       <calculatedColumnFormula>$AD$17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9ECD4A31-B204-4AAA-BCE0-A55479D4D6F9}" name="energy_supplier_id" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{9ECD4A31-B204-4AAA-BCE0-A55479D4D6F9}" name="energy_supplier_id" dataDxfId="50">
       <calculatedColumnFormula>$E$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{08094514-49A8-4D25-A69E-A75EB3232592}" name="quantity" dataDxfId="54">
+    <tableColumn id="4" xr3:uid="{08094514-49A8-4D25-A69E-A75EB3232592}" name="quantity" dataDxfId="49">
       <calculatedColumnFormula>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{88D10A42-9475-42BD-ADCA-A3FFA72BC973}" name="quantity_unit" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{A3DD608C-4E56-40B0-B1F7-95AC815014A7}" name="quantity_qualities" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{88D10A42-9475-42BD-ADCA-A3FFA72BC973}" name="quantity_unit" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{A3DD608C-4E56-40B0-B1F7-95AC815014A7}" name="quantity_qualities" dataDxfId="47">
       <calculatedColumnFormula>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FBD9FA55-93F5-4E1A-96F5-ED949010179F}" name="time" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{9932B718-7F22-4D96-BEE4-F0152DC66C3C}" name="resolution" dataDxfId="51"/>
-    <tableColumn id="9" xr3:uid="{E64C45EC-3ECC-46FF-85E7-A6E4C66A6B05}" name="metering_point_type" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{FBD9FA55-93F5-4E1A-96F5-ED949010179F}" name="time" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{9932B718-7F22-4D96-BEE4-F0152DC66C3C}" name="resolution" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{E64C45EC-3ECC-46FF-85E7-A6E4C66A6B05}" name="metering_point_type" dataDxfId="44">
       <calculatedColumnFormula>$F$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0EF4D2F5-DCAF-46F8-9394-603FD6C1F55C}" name="settlement_method" dataDxfId="11">
+    <tableColumn id="10" xr3:uid="{0EF4D2F5-DCAF-46F8-9394-603FD6C1F55C}" name="settlement_method" dataDxfId="43">
       <calculatedColumnFormula>IF($G$3="","",$G$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{DBC31B41-AB04-4AC3-9F13-BFC4F3EEAA92}" name="price" dataDxfId="46">
+    <tableColumn id="11" xr3:uid="{DBC31B41-AB04-4AC3-9F13-BFC4F3EEAA92}" name="price" dataDxfId="42">
       <calculatedColumnFormula>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D1E8A453-6F3B-41B3-A143-A8DCE8CA5BCA}" name="amount" dataDxfId="12">
-      <calculatedColumnFormula>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{D1E8A453-6F3B-41B3-A143-A8DCE8CA5BCA}" name="amount" dataDxfId="6">
+      <calculatedColumnFormula>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1EB903FD-EE7B-4893-8B3E-F5CD1AE80C04}" name="is_tax" dataDxfId="45">
+    <tableColumn id="13" xr3:uid="{1EB903FD-EE7B-4893-8B3E-F5CD1AE80C04}" name="is_tax" dataDxfId="41">
       <calculatedColumnFormula>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{6EA78CDA-CA22-44EA-8F2B-84698D2E2563}" name="charge_code" dataDxfId="50">
+    <tableColumn id="14" xr3:uid="{6EA78CDA-CA22-44EA-8F2B-84698D2E2563}" name="charge_code" dataDxfId="40">
       <calculatedColumnFormula>$C$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{736A1B4A-102F-483A-AA11-B763F06372FC}" name="charge_type" dataDxfId="49"/>
-    <tableColumn id="16" xr3:uid="{64C92314-FA8E-4583-B04E-521FB24FEAD6}" name="charge_owner_id" dataDxfId="15">
+    <tableColumn id="15" xr3:uid="{736A1B4A-102F-483A-AA11-B763F06372FC}" name="charge_type" dataDxfId="39"/>
+    <tableColumn id="16" xr3:uid="{64C92314-FA8E-4583-B04E-521FB24FEAD6}" name="charge_owner_id" dataDxfId="38">
       <calculatedColumnFormula>$D$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{F22DD871-796B-4BA4-81DC-7842494D2C98}" name="amount_type" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{F22DD871-796B-4BA4-81DC-7842494D2C98}" name="amount_type" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -776,8 +788,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4D9288B3-D090-4897-AD89-5C04D501F267}" name="MPTypeMapping" displayName="MPTypeMapping" ref="Z32:AA58" totalsRowShown="0">
   <autoFilter ref="Z32:AA58" xr:uid="{4D9288B3-D090-4897-AD89-5C04D501F267}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7A432737-3E15-4ECB-BE3F-D5902A6BDC2B}" name="MP type mapping" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{FDB8F8B6-CF45-4A18-8759-8120EBE28034}" name="Column1" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{7A432737-3E15-4ECB-BE3F-D5902A6BDC2B}" name="MP type mapping" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{FDB8F8B6-CF45-4A18-8759-8120EBE28034}" name="Column1" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -800,10 +812,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{69DFFE3D-C209-469C-93C2-67D70897CECD}" name="charge_code"/>
     <tableColumn id="2" xr3:uid="{C2BA6440-DC16-4F9B-96BE-A9A0F237B7ED}" name="charge_type"/>
-    <tableColumn id="3" xr3:uid="{DE42A2CB-11DB-40C9-972F-4996A60A2655}" name="charge_owner_id" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{C462E5E9-79F8-4B90-AE92-B40FC6B4334A}" name="charge_price" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{C24479F8-FACC-4841-9EBA-38DC21F5176A}" name="charge_time" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{95636D1A-8B9F-4BA2-BBFA-C07691BB959D}" name="charge_time_shortened" dataDxfId="21">
+    <tableColumn id="3" xr3:uid="{DE42A2CB-11DB-40C9-972F-4996A60A2655}" name="charge_owner_id" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{C462E5E9-79F8-4B90-AE92-B40FC6B4334A}" name="charge_price" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{C24479F8-FACC-4841-9EBA-38DC21F5176A}" name="charge_time" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{95636D1A-8B9F-4BA2-BBFA-C07691BB959D}" name="charge_time_shortened" dataDxfId="0">
       <calculatedColumnFormula>LEFT(E2,19)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -816,12 +828,12 @@
   <autoFilter ref="A1:G26" xr:uid="{3C8F0617-F039-41D8-8DF9-B9925F5FD292}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{ED5AEA4E-C692-4374-B1CE-C8D8084741D8}" name="metering_point_id"/>
-    <tableColumn id="2" xr3:uid="{DBE4F15E-E8C9-4215-9F8E-1B98001B79C1}" name="quantity" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{DBE4F15E-E8C9-4215-9F8E-1B98001B79C1}" name="quantity" dataDxfId="32"/>
     <tableColumn id="3" xr3:uid="{D9F5ACD6-F0C4-4862-A8B2-60E7B62AC08B}" name="quality"/>
-    <tableColumn id="4" xr3:uid="{920B490A-353A-458C-88EB-A4C7A92A30BF}" name="observation_time" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{2111F635-3CBD-450C-8956-C061F4C2F263}" name="metering_point_type" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{111D7211-7EE4-420E-A428-72724271B430}" name="settlement_method" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{E3FD1FFD-3A22-44CC-B91A-56AD78045817}" name="hour" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{920B490A-353A-458C-88EB-A4C7A92A30BF}" name="observation_time" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{2111F635-3CBD-450C-8956-C061F4C2F263}" name="metering_point_type" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{111D7211-7EE4-420E-A428-72724271B430}" name="settlement_method" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{E3FD1FFD-3A22-44CC-B91A-56AD78045817}" name="hour" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -831,17 +843,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C23C94B-085F-44ED-9C29-B56B92F1B82F}" name="MeteringPointPeriods" displayName="MeteringPointPeriods" ref="A1:K26" totalsRowShown="0">
   <autoFilter ref="A1:K26" xr:uid="{9C23C94B-085F-44ED-9C29-B56B92F1B82F}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{BDDD221E-D8D0-4820-9E79-C550EEFB1552}" name="metering_point_id" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{3264101E-B7CE-433E-95D3-ECAF67C4B197}" name="type" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{7C0D9AD3-5F1E-4528-9C99-D7C9C0B81870}" name="calculation_type" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{A7E122D3-3055-4D9F-A63D-DBCBA9074AEF}" name="settlement_method" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{BDA72DCA-8178-4B49-AC99-64FE311CA920}" name="grid_area_code" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{7C4FD7ED-486D-43F5-8209-FB7F4E50B817}" name="resolution" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{EA876C75-481F-4F0C-BFAD-2B6485E386C9}" name="from_grid_area_code" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{DDADF541-4D21-429F-AD29-34F72E0F5DB0}" name="to_grid_area_code" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{6873E7DA-25ED-4F63-9CC3-142EBFD5C96C}" name="parent_metering_point_id" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{5E7B70BE-3917-4AE6-83EA-8A871F97FB99}" name="energy_supplier_id" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{BE1BF5F2-4168-4BEC-B68C-E044D0519557}" name="balance_responsible_id" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{BDDD221E-D8D0-4820-9E79-C550EEFB1552}" name="metering_point_id" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{3264101E-B7CE-433E-95D3-ECAF67C4B197}" name="type" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{7C0D9AD3-5F1E-4528-9C99-D7C9C0B81870}" name="calculation_type" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{A7E122D3-3055-4D9F-A63D-DBCBA9074AEF}" name="settlement_method" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{BDA72DCA-8178-4B49-AC99-64FE311CA920}" name="grid_area_code" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{7C4FD7ED-486D-43F5-8209-FB7F4E50B817}" name="resolution" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{EA876C75-481F-4F0C-BFAD-2B6485E386C9}" name="from_grid_area_code" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{DDADF541-4D21-429F-AD29-34F72E0F5DB0}" name="to_grid_area_code" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{6873E7DA-25ED-4F63-9CC3-142EBFD5C96C}" name="parent_metering_point_id" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{5E7B70BE-3917-4AE6-83EA-8A871F97FB99}" name="energy_supplier_id" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{BE1BF5F2-4168-4BEC-B68C-E044D0519557}" name="balance_responsible_id" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -853,35 +865,35 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CF0BFE7C-60FC-42F9-9181-73CE1D7E20B7}" name="charge_code"/>
     <tableColumn id="2" xr3:uid="{673AD76B-379D-462E-928F-C6D0BFD5A10C}" name="charge_type"/>
-    <tableColumn id="3" xr3:uid="{243A323C-AF81-41DC-852D-4848600A710B}" name="charge_owner_id" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{243A323C-AF81-41DC-852D-4848600A710B}" name="charge_owner_id" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{AD6E792C-2C46-4350-8BAD-EFB6FA436C58}" name="resolution"/>
-    <tableColumn id="5" xr3:uid="{30067025-C046-41BD-B06F-E0FF1088CE27}" name="is_tax" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{0AB395C0-A6FB-4B10-918C-5C09E228F063}" name="from_date" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{62861BBF-4C0E-43ED-8B6A-11C6ED2A05A8}" name="to_date" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{30067025-C046-41BD-B06F-E0FF1088CE27}" name="is_tax" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{0AB395C0-A6FB-4B10-918C-5C09E228F063}" name="from_date" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{62861BBF-4C0E-43ED-8B6A-11C6ED2A05A8}" name="to_date" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}" name="ChargeLinks" displayName="ChargeLinks" ref="A1:I25" totalsRowShown="0" headerRowDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}" name="ChargeLinks" displayName="ChargeLinks" ref="A1:I25" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:I25" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5D866E37-33E8-4772-8058-91EEF8C237C2}" name="charge_code" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{490CB0A2-0EF8-4653-8A5E-9B8094165BDC}" name="charge_type" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{7135A3A1-5051-429E-8261-8AB31A739FB5}" name="charge_owner_id" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{5C6B43BE-2B8F-4A1F-BF82-B40970FE2DC5}" name="metering_point_id" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{59F6ECAA-71F3-40FF-846D-92E4C6D2132D}" name="quantity" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{3847870A-615B-48A2-A325-CD1C7BAED26A}" name="energy_supplier_id" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{5D866E37-33E8-4772-8058-91EEF8C237C2}" name="charge_code" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{490CB0A2-0EF8-4653-8A5E-9B8094165BDC}" name="charge_type" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{7135A3A1-5051-429E-8261-8AB31A739FB5}" name="charge_owner_id" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{5C6B43BE-2B8F-4A1F-BF82-B40970FE2DC5}" name="metering_point_id" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{59F6ECAA-71F3-40FF-846D-92E4C6D2132D}" name="quantity" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3847870A-615B-48A2-A325-CD1C7BAED26A}" name="energy_supplier_id" dataDxfId="10">
       <calculatedColumnFormula>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{58B714A4-DCC0-4728-99C2-D5D8472B5530}" name="metering_point_type" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{58B714A4-DCC0-4728-99C2-D5D8472B5530}" name="metering_point_type" dataDxfId="9">
       <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{76EB7E81-9D94-4902-9DF2-1A4EF371DAF0}" name="settlement_method" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{76EB7E81-9D94-4902-9DF2-1A4EF371DAF0}" name="settlement_method" dataDxfId="8">
       <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A2CD103B-C1B7-45F8-A620-EBFFDBF64097}" name="Column1" dataDxfId="6">
+    <tableColumn id="10" xr3:uid="{A2CD103B-C1B7-45F8-A620-EBFFDBF64097}" name="OutputCombination" dataDxfId="7">
       <calculatedColumnFormula>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1209,48 +1221,48 @@
   <dimension ref="B1:AD67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="H8" sqref="H8:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.1796875" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" customWidth="1"/>
-    <col min="16" max="16" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.54296875" customWidth="1"/>
-    <col min="18" max="18" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.81640625" customWidth="1"/>
-    <col min="25" max="25" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.36328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.85546875" customWidth="1"/>
+    <col min="25" max="25" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="25" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.90625" customWidth="1"/>
-    <col min="35" max="35" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.90625" customWidth="1"/>
+    <col min="30" max="31" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" customWidth="1"/>
+    <col min="35" max="35" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s">
         <v>96</v>
@@ -1259,7 +1271,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C3" t="str" cm="1">
         <f t="array" ref="C3:F3">_xlfn.TEXTSPLIT(C1,"--")</f>
         <v>tariff-hourly-3-co_6660000000002</v>
@@ -1277,18 +1289,18 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
         <v>109</v>
-      </c>
-      <c r="E4" t="s">
-        <v>110</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1336,32 +1348,32 @@
         <v>11</v>
       </c>
       <c r="U4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD4" t="str" cm="1">
+        <f t="array" ref="AD4:AD9">_xlfn.UNIQUE(ChargeLinks[OutputCombination])</f>
+        <v>tariff-hourly-1-co_6660000000001--6660000000001--3000000000000--consumption--non_profiled</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>111</v>
       </c>
-      <c r="AD4" t="str" cm="1">
-        <f t="array" ref="AD4:AD8">_xlfn.UNIQUE(ChargeLinks[Column1])</f>
-        <v>tariff-hourly-1-co_6660000000001--6660000000001--3000000000000--consumption--non_profiled</v>
-      </c>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
+      <c r="C5" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F5">
-        <f>$AD$17</f>
+        <f t="shared" ref="F5:F28" si="0">$AD$17</f>
         <v>800</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G28" si="0">$E$3</f>
+        <f t="shared" ref="G5:G28" si="1">$E$3</f>
         <v>2000000000000</v>
       </c>
       <c r="H5" t="str">
@@ -1375,7 +1387,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K5" s="4" t="str" cm="1">
+      <c r="K5" t="str" cm="1">
         <f t="array" ref="K5">CONCATENATE(INDEX(AC30:AC58,MATCH(H1,AC30:AC58,0)-1,1)," 23:00:00")</f>
         <v>2023-01-31 23:00:00</v>
       </c>
@@ -1383,11 +1395,11 @@
         <v>24</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ref="M5:M28" si="1">$F$3</f>
+        <f t="shared" ref="M5:M28" si="2">$F$3</f>
         <v>production</v>
       </c>
       <c r="N5" s="3" t="str">
-        <f t="shared" ref="N5:N28" si="2">IF($G$3="","",$G$3)</f>
+        <f t="shared" ref="N5:N28" si="3">IF($G$3="","",$G$3)</f>
         <v/>
       </c>
       <c r="O5" s="3" t="str">
@@ -1395,50 +1407,50 @@
         <v/>
       </c>
       <c r="P5" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q5" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q5" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R5" t="str">
-        <f>$C$3</f>
+        <f t="shared" ref="R5:R28" si="4">$C$3</f>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S5" t="s">
         <v>3</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" ref="T5:T28" si="3">$D$3</f>
+        <f t="shared" ref="T5:T28" si="5">$D$3</f>
         <v>6660000000002</v>
       </c>
-      <c r="U5" s="4" t="s">
-        <v>116</v>
+      <c r="U5" t="s">
+        <v>115</v>
       </c>
       <c r="AD5" t="str">
         <v>tariff-hourly-1-co_6660000000001--6660000000001--1000000000000--consumption--flex</v>
       </c>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F6">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H6" t="str">
@@ -1452,7 +1464,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K6" s="4" t="str">
+      <c r="K6" t="str">
         <f>CONCATENATE(H$1," 00:00:00")</f>
         <v>2023-02-01 00:00:00</v>
       </c>
@@ -1460,11 +1472,11 @@
         <v>24</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N6" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O6" s="3" t="str">
@@ -1472,50 +1484,50 @@
         <v/>
       </c>
       <c r="P6" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q6" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q6" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R6" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S6" t="s">
         <v>3</v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U6" s="4" t="s">
-        <v>116</v>
+      <c r="U6" t="s">
+        <v>115</v>
       </c>
       <c r="AD6" t="str">
         <v>tariff-hourly-2-co_6660000000001--6660000000001--1000000000000--consumption_from_grid</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F7">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H7" t="str">
@@ -1529,7 +1541,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K7" s="4" t="str">
+      <c r="K7" t="str">
         <f>CONCATENATE(H$1," 01:00:00")</f>
         <v>2023-02-01 01:00:00</v>
       </c>
@@ -1537,11 +1549,11 @@
         <v>24</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N7" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O7" s="3" t="str">
@@ -1549,55 +1561,55 @@
         <v/>
       </c>
       <c r="P7" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q7" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q7" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R7" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S7" t="s">
         <v>3</v>
       </c>
       <c r="T7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U7" s="4" t="s">
-        <v>116</v>
+      <c r="U7" t="s">
+        <v>115</v>
       </c>
       <c r="AD7" t="str">
         <v>tariff-hourly-3-co_6660000000002--6660000000002--2000000000000--production</v>
       </c>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F8">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H8" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
-        <v>84.439</v>
+        <v>44.28</v>
       </c>
       <c r="I8" t="s">
         <v>92</v>
@@ -1606,7 +1618,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['measured']</v>
       </c>
-      <c r="K8" s="4" t="str">
+      <c r="K8" t="str">
         <f>CONCATENATE(H$1," 02:00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
@@ -1614,62 +1626,62 @@
         <v>24</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N8" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O8" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v>7.6564321</v>
+        <v>7.654321</v>
       </c>
       <c r="P8" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v>646.5014700919</v>
-      </c>
-      <c r="Q8" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v>338.933334</v>
+      </c>
+      <c r="Q8" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R8" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S8" t="s">
         <v>3</v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U8" s="4" t="s">
-        <v>116</v>
+      <c r="U8" t="s">
+        <v>115</v>
       </c>
       <c r="AD8" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
+        <v>tariff-hourly-4-co_is_tax--6660000000666--1000000000000--consumption--flex</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F9">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H9" t="str">
@@ -1683,7 +1695,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K9" s="4" t="str">
+      <c r="K9" t="str">
         <f>CONCATENATE(H$1," 03:00:00")</f>
         <v>2023-02-01 03:00:00</v>
       </c>
@@ -1691,11 +1703,11 @@
         <v>24</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N9" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O9" s="3" t="str">
@@ -1703,47 +1715,50 @@
         <v/>
       </c>
       <c r="P9" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q9" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q9" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R9" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S9" t="s">
         <v>3</v>
       </c>
       <c r="T9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U9" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
+      <c r="U9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F10">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H10" t="str">
@@ -1757,7 +1772,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K10" s="4" t="str">
+      <c r="K10" t="str">
         <f>CONCATENATE(H$1," 04:00:00")</f>
         <v>2023-02-01 04:00:00</v>
       </c>
@@ -1765,11 +1780,11 @@
         <v>24</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N10" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O10" s="3" t="str">
@@ -1777,47 +1792,47 @@
         <v/>
       </c>
       <c r="P10" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q10" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q10" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R10" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S10" t="s">
         <v>3</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U10" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
+      <c r="U10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F11">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H11" t="str">
@@ -1831,7 +1846,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K11" s="4" t="str">
+      <c r="K11" t="str">
         <f>CONCATENATE(H$1," 05:00:00")</f>
         <v>2023-02-01 05:00:00</v>
       </c>
@@ -1839,11 +1854,11 @@
         <v>24</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N11" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O11" s="3" t="str">
@@ -1851,47 +1866,47 @@
         <v/>
       </c>
       <c r="P11" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q11" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q11" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R11" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S11" t="s">
         <v>3</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U11" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
+      <c r="U11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F12">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H12" t="str">
@@ -1905,7 +1920,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K12" s="4" t="str">
+      <c r="K12" t="str">
         <f>CONCATENATE(H$1," 06:00:00")</f>
         <v>2023-02-01 06:00:00</v>
       </c>
@@ -1913,11 +1928,11 @@
         <v>24</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N12" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O12" s="3" t="str">
@@ -1925,47 +1940,47 @@
         <v/>
       </c>
       <c r="P12" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q12" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q12" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R12" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S12" t="s">
         <v>3</v>
       </c>
       <c r="T12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U12" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
+      <c r="U12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F13">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H13" t="str">
@@ -1979,7 +1994,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K13" s="4" t="str">
+      <c r="K13" t="str">
         <f>CONCATENATE(H$1," 07:00:00")</f>
         <v>2023-02-01 07:00:00</v>
       </c>
@@ -1987,11 +2002,11 @@
         <v>24</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N13" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O13" s="3" t="str">
@@ -1999,47 +2014,47 @@
         <v/>
       </c>
       <c r="P13" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q13" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q13" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R13" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S13" t="s">
         <v>3</v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U13" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
+      <c r="U13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F14">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H14" t="str">
@@ -2053,7 +2068,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K14" s="4" t="str">
+      <c r="K14" t="str">
         <f>CONCATENATE(H$1," 08:00:00")</f>
         <v>2023-02-01 08:00:00</v>
       </c>
@@ -2061,11 +2076,11 @@
         <v>24</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N14" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O14" s="3" t="str">
@@ -2073,47 +2088,47 @@
         <v/>
       </c>
       <c r="P14" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q14" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q14" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R14" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S14" t="s">
         <v>3</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U14" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
+      <c r="U14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F15">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H15" t="str">
@@ -2127,7 +2142,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K15" s="4" t="str">
+      <c r="K15" t="str">
         <f>CONCATENATE(H$1," 09:00:00")</f>
         <v>2023-02-01 09:00:00</v>
       </c>
@@ -2135,11 +2150,11 @@
         <v>24</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N15" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O15" s="3" t="str">
@@ -2147,47 +2162,47 @@
         <v/>
       </c>
       <c r="P15" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q15" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q15" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R15" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S15" t="s">
         <v>3</v>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U15" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
+      <c r="U15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F16">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H16" t="str">
@@ -2201,7 +2216,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K16" s="4" t="str">
+      <c r="K16" t="str">
         <f>CONCATENATE(H$1," 10:00:00")</f>
         <v>2023-02-01 10:00:00</v>
       </c>
@@ -2209,11 +2224,11 @@
         <v>24</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N16" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O16" s="3" t="str">
@@ -2221,50 +2236,50 @@
         <v/>
       </c>
       <c r="P16" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q16" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q16" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R16" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S16" t="s">
         <v>3</v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U16" s="4" t="s">
-        <v>116</v>
+      <c r="U16" t="s">
+        <v>115</v>
       </c>
       <c r="AD16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F17">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H17" t="str">
@@ -2278,7 +2293,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K17" s="4" t="str">
+      <c r="K17" t="str">
         <f>CONCATENATE(H$1," 11:00:00")</f>
         <v>2023-02-01 11:00:00</v>
       </c>
@@ -2286,11 +2301,11 @@
         <v>24</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N17" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O17" s="3" t="str">
@@ -2298,51 +2313,51 @@
         <v/>
       </c>
       <c r="P17" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q17" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q17" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R17" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S17" t="s">
         <v>3</v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U17" s="4" t="s">
-        <v>116</v>
+      <c r="U17" t="s">
+        <v>115</v>
       </c>
       <c r="AD17" cm="1">
         <f t="array" ref="AD17:AD19">_xlfn._xlws.SORT(_xlfn.UNIQUE(MeteringPointPeriods[grid_area_code]))</f>
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F18">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H18" t="str">
@@ -2356,7 +2371,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K18" s="4" t="str">
+      <c r="K18" t="str">
         <f>CONCATENATE(H$1," 12:00:00")</f>
         <v>2023-02-01 12:00:00</v>
       </c>
@@ -2364,11 +2379,11 @@
         <v>24</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N18" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O18" s="3" t="str">
@@ -2376,50 +2391,50 @@
         <v/>
       </c>
       <c r="P18" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q18" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q18" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R18" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S18" t="s">
         <v>3</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U18" s="4" t="s">
-        <v>116</v>
+      <c r="U18" t="s">
+        <v>115</v>
       </c>
       <c r="AD18">
         <v>801</v>
       </c>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F19">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H19" t="str">
@@ -2433,7 +2448,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K19" s="4" t="str">
+      <c r="K19" t="str">
         <f>CONCATENATE(H$1," 13:00:00")</f>
         <v>2023-02-01 13:00:00</v>
       </c>
@@ -2441,11 +2456,11 @@
         <v>24</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N19" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O19" s="3" t="str">
@@ -2453,50 +2468,50 @@
         <v/>
       </c>
       <c r="P19" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q19" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q19" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R19" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S19" t="s">
         <v>3</v>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U19" s="4" t="s">
-        <v>116</v>
+      <c r="U19" t="s">
+        <v>115</v>
       </c>
       <c r="AD19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F20">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H20" t="str">
@@ -2510,7 +2525,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K20" s="4" t="str">
+      <c r="K20" t="str">
         <f>CONCATENATE(H$1," 14:00:00")</f>
         <v>2023-02-01 14:00:00</v>
       </c>
@@ -2518,11 +2533,11 @@
         <v>24</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N20" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O20" s="3" t="str">
@@ -2530,47 +2545,47 @@
         <v/>
       </c>
       <c r="P20" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q20" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q20" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R20" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S20" t="s">
         <v>3</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U20" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B21" s="4" t="s">
+      <c r="U20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F21">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H21" t="str">
@@ -2584,7 +2599,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K21" s="4" t="str">
+      <c r="K21" t="str">
         <f>CONCATENATE(H$1," 15:00:00")</f>
         <v>2023-02-01 15:00:00</v>
       </c>
@@ -2592,11 +2607,11 @@
         <v>24</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N21" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O21" s="3" t="str">
@@ -2604,47 +2619,47 @@
         <v/>
       </c>
       <c r="P21" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q21" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q21" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R21" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S21" t="s">
         <v>3</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U21" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B22" s="4" t="s">
+      <c r="U21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F22">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H22" t="str">
@@ -2658,7 +2673,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K22" s="4" t="str">
+      <c r="K22" t="str">
         <f>CONCATENATE(H$1," 16:00:00")</f>
         <v>2023-02-01 16:00:00</v>
       </c>
@@ -2666,11 +2681,11 @@
         <v>24</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N22" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O22" s="3" t="str">
@@ -2678,47 +2693,47 @@
         <v/>
       </c>
       <c r="P22" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q22" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q22" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R22" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S22" t="s">
         <v>3</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U22" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B23" s="4" t="s">
+      <c r="U22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F23">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H23" t="str">
@@ -2732,7 +2747,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K23" s="4" t="str">
+      <c r="K23" t="str">
         <f>CONCATENATE(H$1," 17:00:00")</f>
         <v>2023-02-01 17:00:00</v>
       </c>
@@ -2740,11 +2755,11 @@
         <v>24</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N23" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O23" s="3" t="str">
@@ -2752,47 +2767,47 @@
         <v/>
       </c>
       <c r="P23" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q23" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q23" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R23" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S23" t="s">
         <v>3</v>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U23" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B24" s="4" t="s">
+      <c r="U23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F24">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H24" t="str">
@@ -2806,7 +2821,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K24" s="4" t="str">
+      <c r="K24" t="str">
         <f>CONCATENATE(H$1," 18:00:00")</f>
         <v>2023-02-01 18:00:00</v>
       </c>
@@ -2814,11 +2829,11 @@
         <v>24</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N24" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O24" s="3" t="str">
@@ -2826,47 +2841,47 @@
         <v/>
       </c>
       <c r="P24" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q24" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q24" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R24" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S24" t="s">
         <v>3</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U24" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B25" s="4" t="s">
+      <c r="U24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F25">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H25" t="str">
@@ -2880,7 +2895,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K25" s="4" t="str">
+      <c r="K25" t="str">
         <f>CONCATENATE(H$1," 19:00:00")</f>
         <v>2023-02-01 19:00:00</v>
       </c>
@@ -2888,11 +2903,11 @@
         <v>24</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N25" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O25" s="3" t="str">
@@ -2900,47 +2915,47 @@
         <v/>
       </c>
       <c r="P25" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q25" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q25" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R25" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S25" t="s">
         <v>3</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U25" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B26" s="4" t="s">
+      <c r="U25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F26">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H26" t="str">
@@ -2954,7 +2969,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K26" s="4" t="str">
+      <c r="K26" t="str">
         <f>CONCATENATE(H$1," 20:00:00")</f>
         <v>2023-02-01 20:00:00</v>
       </c>
@@ -2962,11 +2977,11 @@
         <v>24</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N26" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O26" s="3" t="str">
@@ -2974,47 +2989,47 @@
         <v/>
       </c>
       <c r="P26" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q26" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q26" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R26" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S26" t="s">
         <v>3</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U26" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B27" s="4" t="s">
+      <c r="U26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F27">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H27" t="str">
@@ -3028,7 +3043,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K27" s="4" t="str">
+      <c r="K27" t="str">
         <f>CONCATENATE(H$1," 21:00:00")</f>
         <v>2023-02-01 21:00:00</v>
       </c>
@@ -3036,11 +3051,11 @@
         <v>24</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N27" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O27" s="3" t="str">
@@ -3048,47 +3063,47 @@
         <v/>
       </c>
       <c r="P27" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q27" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q27" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R27" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S27" t="s">
         <v>3</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U27" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B28" s="4" t="s">
+      <c r="U27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F28">
-        <f>$AD$17</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000000000000</v>
       </c>
       <c r="H28" t="str">
@@ -3102,7 +3117,7 @@
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
         <v>['missing']</v>
       </c>
-      <c r="K28" s="4" t="str">
+      <c r="K28" t="str">
         <f>CONCATENATE(H$1," 22:00:00")</f>
         <v>2023-02-01 22:00:00</v>
       </c>
@@ -3110,11 +3125,11 @@
         <v>24</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>production</v>
       </c>
       <c r="N28" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O28" s="3" t="str">
@@ -3122,26 +3137,26 @@
         <v/>
       </c>
       <c r="P28" s="3" t="str">
-        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
-      </c>
-      <c r="Q28" s="4" t="str">
+        <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
+        <v/>
+      </c>
+      <c r="Q28" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R28" t="str">
-        <f>$C$3</f>
+        <f t="shared" si="4"/>
         <v>tariff-hourly-3-co_6660000000002</v>
       </c>
       <c r="S28" t="s">
         <v>3</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6660000000002</v>
       </c>
-      <c r="U28" s="4" t="s">
-        <v>116</v>
+      <c r="U28" t="s">
+        <v>115</v>
       </c>
       <c r="Z28" t="s">
         <v>63</v>
@@ -3150,7 +3165,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="Z29" t="s">
         <v>26</v>
       </c>
@@ -3161,7 +3176,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="I30" s="2"/>
       <c r="V30" s="2"/>
       <c r="Y30" s="2"/>
@@ -3177,7 +3192,7 @@
         <v>2023-01-31</v>
       </c>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="I31" s="2"/>
       <c r="V31" s="2"/>
       <c r="Y31" s="2"/>
@@ -3188,7 +3203,7 @@
         <v>2023-02-01</v>
       </c>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
       <c r="Y32" s="2"/>
       <c r="Z32" t="s">
         <v>58</v>
@@ -3201,7 +3216,7 @@
         <v>2023-02-02</v>
       </c>
     </row>
-    <row r="33" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="33" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y33" s="2"/>
       <c r="Z33" t="s">
         <v>25</v>
@@ -3214,7 +3229,7 @@
         <v>2023-02-03</v>
       </c>
     </row>
-    <row r="34" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="34" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y34" s="2"/>
       <c r="Z34" s="2" t="s">
         <v>28</v>
@@ -3224,7 +3239,7 @@
       </c>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="35" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y35" s="2"/>
       <c r="Z35" s="2" t="s">
         <v>29</v>
@@ -3234,7 +3249,7 @@
       </c>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="36" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y36" s="2"/>
       <c r="Z36" s="2" t="s">
         <v>31</v>
@@ -3244,7 +3259,7 @@
       </c>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="37" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y37" s="2"/>
       <c r="Z37" s="2" t="s">
         <v>32</v>
@@ -3254,109 +3269,109 @@
       </c>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="38" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="39" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="40" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
     </row>
-    <row r="41" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="41" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
     </row>
-    <row r="42" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="42" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="43" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
     </row>
-    <row r="44" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="44" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="45" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="46" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="47" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
     </row>
-    <row r="48" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="48" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
     </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="Y55" s="2"/>
@@ -3364,7 +3379,7 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
     </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="Y56" s="2"/>
@@ -3372,7 +3387,7 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3387,7 +3402,7 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3414,7 +3429,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
     </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3441,7 +3456,7 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
     </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -3468,7 +3483,7 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
     </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -3488,7 +3503,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -3508,7 +3523,7 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
     </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -3528,7 +3543,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
     </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -3548,7 +3563,7 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
     </row>
-    <row r="65" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="65" spans="11:28" x14ac:dyDescent="0.25">
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -3568,7 +3583,7 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
     </row>
-    <row r="66" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="66" spans="11:28" x14ac:dyDescent="0.25">
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -3588,7 +3603,7 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
     </row>
-    <row r="67" spans="11:28" x14ac:dyDescent="0.35">
+    <row r="67" spans="11:28" x14ac:dyDescent="0.25">
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -3633,20 +3648,20 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3666,7 +3681,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3676,18 +3691,18 @@
       <c r="C2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="1" t="str">
-        <f>LEFT(E2,19)</f>
+      <c r="F2" s="7" t="str">
+        <f t="shared" ref="F2:F8" si="0">LEFT(E2,19)</f>
         <v>2023-02-01 23:00:00</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3697,18 +3712,18 @@
       <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="str">
-        <f>LEFT(E3,19)</f>
+      <c r="F3" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>2023-02-02 23:00:00</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3718,18 +3733,18 @@
       <c r="C4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="1" t="str">
-        <f>LEFT(E4,19)</f>
+      <c r="F4" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>2023-02-02 23:00:00</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3739,18 +3754,18 @@
       <c r="C5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="1" t="str">
-        <f>LEFT(E5,19)</f>
+      <c r="F5" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>2023-02-02 23:00:00</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3760,18 +3775,18 @@
       <c r="C6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="1" t="str">
-        <f>LEFT(E6,19)</f>
+      <c r="F6" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>2023-01-31 23:00:00</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3781,18 +3796,18 @@
       <c r="C7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="1" t="str">
-        <f>LEFT(E7,19)</f>
+      <c r="F7" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>2023-01-31 23:00:00</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3802,30 +3817,30 @@
       <c r="C8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="1" t="str">
-        <f>LEFT(E8,19)</f>
+      <c r="F8" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>2023-01-31 23:00:00</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3835,18 +3850,18 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="1" t="str">
-        <f>LEFT(E11,19)</f>
+      <c r="F11" s="7" t="str">
+        <f t="shared" ref="F11:F25" si="1">LEFT(E11,19)</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3856,18 +3871,18 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="1" t="str">
-        <f>LEFT(E12,19)</f>
+        <v>116</v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>2023-02-03 02:00:00</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -3877,18 +3892,18 @@
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="1" t="str">
-        <f>LEFT(E13,19)</f>
+        <v>116</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>2023-02-03 02:00:00</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -3896,115 +3911,127 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="6">
-        <v>7.6564321</v>
+        <v>104</v>
+      </c>
+      <c r="D14" s="5">
+        <v>7.6543210000000004</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="1" t="str">
-        <f>LEFT(E14,19)</f>
+      <c r="F14" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="str">
-        <f>LEFT(E15,19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="5">
+        <v>666.66666599999996</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>2023-02-01 02:00:00</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1" t="str">
-        <f>LEFT(E16,19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="F16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1" t="str">
-        <f>LEFT(E17,19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="F17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="str">
-        <f>LEFT(E18,19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1" t="str">
-        <f>LEFT(E19,19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="F19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1" t="str">
-        <f>LEFT(E20,19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="F20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1" t="str">
-        <f>LEFT(E21,19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="F21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="str">
-        <f>LEFT(E22,19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="F22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1" t="str">
-        <f>LEFT(E23,19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="F23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1" t="str">
-        <f>LEFT(E24,19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="F24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1" t="str">
-        <f>LEFT(E25,19)</f>
+      <c r="F25" s="7" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4021,21 +4048,21 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -4058,7 +4085,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4071,20 +4098,20 @@
       <c r="D2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="5" t="str">
+      <c r="E2" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="F2" s="5" t="str">
+      <c r="F2" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>non_profiled</v>
       </c>
-      <c r="G2" s="5" t="str">
+      <c r="G2" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -4097,20 +4124,20 @@
       <c r="D3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="5" t="str">
+      <c r="E3" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="F3" s="5" t="str">
+      <c r="F3" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>non_profiled</v>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G3" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -4123,20 +4150,20 @@
       <c r="D4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="5" t="str">
+      <c r="E4" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>non_profiled</v>
       </c>
-      <c r="G4" s="5" t="str">
+      <c r="G4" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -4149,20 +4176,20 @@
       <c r="D5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="5" t="str">
+      <c r="E5" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="F5" s="5" t="str">
+      <c r="F5" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>non_profiled</v>
       </c>
-      <c r="G5" s="5" t="str">
+      <c r="G5" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -4175,20 +4202,20 @@
       <c r="D6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="5" t="str">
+      <c r="E6" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="F6" s="5" t="str">
+      <c r="F6" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>non_profiled</v>
       </c>
-      <c r="G6" s="5" t="str">
+      <c r="G6" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -4196,25 +4223,25 @@
         <v>3.379</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="5" t="str">
+      <c r="E7" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="F7" s="5" t="str">
+      <c r="F7" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>flex</v>
       </c>
-      <c r="G7" s="5" t="str">
+      <c r="G7" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -4222,25 +4249,25 @@
         <v>3.38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="5" t="str">
+      <c r="E8" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="F8" s="5" t="str">
+      <c r="F8" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>flex</v>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="G8" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -4248,25 +4275,25 @@
         <v>3.3780000000000001</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="5" t="str">
+      <c r="E9" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="F9" s="5" t="str">
+      <c r="F9" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>flex</v>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="G9" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -4274,127 +4301,127 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="5" t="str">
+      <c r="E10" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="F10" s="5" t="str">
+      <c r="F10" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>flex</v>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="G10" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="5" t="str">
+      <c r="E11" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F11" s="5" t="str">
+      <c r="F11" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G11" s="5" t="str">
+      <c r="G11" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="5" t="str">
+      <c r="E12" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F12" s="5" t="str">
+      <c r="F12" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G12" s="5" t="str">
+      <c r="G12" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="5" t="str">
+      <c r="E13" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F13" s="5" t="str">
+      <c r="F13" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G13" s="5" t="str">
+      <c r="G13" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="5" t="str">
+      <c r="E14" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F14" s="5" t="str">
+      <c r="F14" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G14" s="5" t="str">
+      <c r="G14" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="5" t="str">
+      <c r="E15" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F15" s="5" t="str">
+      <c r="F15" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="G15" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="5" t="str">
+      <c r="E16" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F16" s="5" t="str">
+      <c r="F16" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G16" s="5" t="str">
+      <c r="G16" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -4405,22 +4432,22 @@
         <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="5" t="str">
+        <v>117</v>
+      </c>
+      <c r="E17" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption_from_grid</v>
       </c>
-      <c r="F17" s="5" t="str">
+      <c r="F17" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G17" s="5" t="str">
+      <c r="G17" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-03 02:00:00</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -4433,20 +4460,20 @@
       <c r="D18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="5" t="str">
+      <c r="E18" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>exchange</v>
       </c>
-      <c r="F18" s="5" t="str">
+      <c r="F18" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G18" s="5" t="str">
+      <c r="G18" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -4459,25 +4486,25 @@
       <c r="D19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="5" t="str">
+      <c r="E19" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>production</v>
       </c>
-      <c r="F19" s="5" t="str">
+      <c r="F19" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G19" s="5" t="str">
+      <c r="G19" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="3">
-        <v>10.039999999999999</v>
+        <v>4.1210000000000004</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>69</v>
@@ -4485,25 +4512,25 @@
       <c r="D20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="5" t="str">
+      <c r="E20" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>production</v>
       </c>
-      <c r="F20" s="5" t="str">
+      <c r="F20" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G20" s="5" t="str">
+      <c r="G20" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="3">
-        <v>10.039999999999999</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>69</v>
@@ -4511,25 +4538,25 @@
       <c r="D21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="5" t="str">
+      <c r="E21" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>production</v>
       </c>
-      <c r="F21" s="5" t="str">
+      <c r="F21" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G21" s="5" t="str">
+      <c r="G21" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="3">
-        <v>10.039</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>69</v>
@@ -4537,25 +4564,25 @@
       <c r="D22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="5" t="str">
+      <c r="E22" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>production</v>
       </c>
-      <c r="F22" s="5" t="str">
+      <c r="F22" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G22" s="5" t="str">
+      <c r="G22" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="3">
-        <v>14.161</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>69</v>
@@ -4563,63 +4590,63 @@
       <c r="D23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="5" t="str">
+      <c r="E23" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>production</v>
       </c>
-      <c r="F23" s="5" t="str">
+      <c r="F23" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G23" s="5" t="str">
+      <c r="G23" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="5" t="str">
+      <c r="E24" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F24" s="5" t="str">
+      <c r="F24" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G24" s="5" t="str">
+      <c r="G24" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="5" t="str">
+      <c r="E25" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F25" s="5" t="str">
+      <c r="F25" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G25" s="5" t="str">
+      <c r="G25" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="5" t="str">
+      <c r="E26" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F26" s="5" t="str">
+      <c r="F26" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="G26" s="5" t="str">
+      <c r="G26" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v/>
       </c>
@@ -4637,25 +4664,25 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -4690,7 +4717,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -4717,7 +4744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -4742,7 +4769,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -4769,7 +4796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -4792,7 +4819,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -4819,7 +4846,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -4846,7 +4873,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4871,7 +4898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4894,7 +4921,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -4919,7 +4946,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -4944,7 +4971,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4957,7 +4984,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4970,7 +4997,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4983,7 +5010,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4996,7 +5023,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -5009,7 +5036,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -5022,7 +5049,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5035,7 +5062,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5048,7 +5075,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5061,7 +5088,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5074,7 +5101,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5087,7 +5114,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5100,7 +5127,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5113,7 +5140,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5126,7 +5153,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -5152,21 +5179,21 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -5183,13 +5210,13 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5212,7 +5239,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -5235,7 +5262,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -5258,7 +5285,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5281,7 +5308,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -5304,7 +5331,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -5327,7 +5354,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -5350,7 +5377,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -5373,7 +5400,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -5381,10 +5408,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>93</v>
@@ -5396,21 +5423,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F11" s="1">
         <v>42400.958333333336</v>
@@ -5432,23 +5459,23 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="87" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5474,10 +5501,10 @@
         <v>40</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5493,24 +5520,24 @@
       <c r="E2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="5" t="str">
+      <c r="F2" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>3000000000000</v>
       </c>
-      <c r="G2" s="5" t="str">
+      <c r="G2" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="H2" s="5" t="str">
+      <c r="H2" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>non_profiled</v>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="I2" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-hourly-1-co_6660000000001--6660000000001--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5526,24 +5553,24 @@
       <c r="E3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="5" t="str">
+      <c r="F3" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>3000000000000</v>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G3" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="H3" s="5" t="str">
+      <c r="H3" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>non_profiled</v>
       </c>
-      <c r="I3" s="5" t="str">
+      <c r="I3" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-hourly-1-co_6660000000001--6660000000001--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -5559,24 +5586,24 @@
       <c r="E4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>1000000000000</v>
       </c>
-      <c r="G4" s="5" t="str">
+      <c r="G4" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>flex</v>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="I4" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-hourly-1-co_6660000000001--6660000000001--1000000000000--consumption--flex</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5592,24 +5619,24 @@
       <c r="E5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="5" t="str">
+      <c r="F5" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>1000000000000</v>
       </c>
-      <c r="G5" s="5" t="str">
+      <c r="G5" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>flex</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I5" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-hourly-1-co_6660000000001--6660000000001--1000000000000--consumption--flex</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>99</v>
       </c>
@@ -5625,24 +5652,24 @@
       <c r="E6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="5" t="str">
+      <c r="F6" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>1000000000000</v>
       </c>
-      <c r="G6" s="5" t="str">
+      <c r="G6" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption_from_grid</v>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="H6" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I6" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-hourly-2-co_6660000000001--6660000000001--1000000000000--consumption_from_grid</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>100</v>
       </c>
@@ -5650,7 +5677,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>34</v>
@@ -5658,24 +5685,24 @@
       <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="5" t="str">
+      <c r="F7" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>2000000000000</v>
       </c>
-      <c r="G7" s="5" t="str">
+      <c r="G7" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>production</v>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="H7" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I7" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-hourly-3-co_6660000000002--6660000000002--2000000000000--production</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>100</v>
       </c>
@@ -5683,7 +5710,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -5691,410 +5718,420 @@
       <c r="E8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="5" t="str">
+      <c r="F8" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>2000000000000</v>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="G8" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>production</v>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I8" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-hourly-3-co_6660000000002--6660000000002--2000000000000--production</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5" t="str">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v/>
-      </c>
-      <c r="G9" s="5" t="str">
+        <v>1000000000000</v>
+      </c>
+      <c r="G9" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="H9" s="5" t="str">
+        <v>consumption</v>
+      </c>
+      <c r="H9" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I9" s="5" t="str">
+        <v>flex</v>
+      </c>
+      <c r="I9" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>tariff-hourly-4-co_is_tax--6660000000666--1000000000000--consumption--flex</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="5" t="str">
+      <c r="F10" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v/>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="G10" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H10" s="5" t="str">
+      <c r="H10" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I10" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="5" t="str">
+      <c r="F11" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v/>
       </c>
-      <c r="G11" s="5" t="str">
+      <c r="G11" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H11" s="5" t="str">
+      <c r="H11" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="I11" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="5" t="str">
+      <c r="F12" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v/>
       </c>
-      <c r="G12" s="5" t="str">
+      <c r="G12" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H12" s="5" t="str">
+      <c r="H12" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I12" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="5" t="str">
+      <c r="F13" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v/>
       </c>
-      <c r="G13" s="5" t="str">
+      <c r="G13" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H13" s="5" t="str">
+      <c r="H13" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I13" s="5" t="str">
+      <c r="I13" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="5" t="str">
+      <c r="F14" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v/>
       </c>
-      <c r="G14" s="5" t="str">
+      <c r="G14" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H14" s="5" t="str">
+      <c r="H14" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I14" s="5" t="str">
+      <c r="I14" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="5" t="str">
+      <c r="F15" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v/>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="G15" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H15" s="5" t="str">
+      <c r="H15" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I15" s="5" t="str">
+      <c r="I15" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="5" t="str">
+      <c r="F16" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v/>
       </c>
-      <c r="G16" s="5" t="str">
+      <c r="G16" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H16" s="5" t="str">
+      <c r="H16" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="I16" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="5" t="str">
+      <c r="F17" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v/>
       </c>
-      <c r="G17" s="5" t="str">
+      <c r="G17" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H17" s="5" t="str">
+      <c r="H17" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="I17" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="5" t="str">
+      <c r="F18" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v/>
       </c>
-      <c r="G18" s="5" t="str">
+      <c r="G18" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H18" s="5" t="str">
+      <c r="H18" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="I18" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="5" t="str">
+      <c r="F19" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v/>
       </c>
-      <c r="G19" s="5" t="str">
+      <c r="G19" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H19" s="5" t="str">
+      <c r="H19" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I19" s="5" t="str">
+      <c r="I19" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="5" t="str">
+      <c r="F20" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v/>
       </c>
-      <c r="G20" s="5" t="str">
+      <c r="G20" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H20" s="5" t="str">
+      <c r="H20" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I20" s="5" t="str">
+      <c r="I20" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="5" t="str">
+      <c r="F21" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v/>
       </c>
-      <c r="G21" s="5" t="str">
+      <c r="G21" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H21" s="5" t="str">
+      <c r="H21" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I21" s="5" t="str">
+      <c r="I21" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="5" t="str">
+      <c r="F22" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v/>
       </c>
-      <c r="G22" s="5" t="str">
+      <c r="G22" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H22" s="5" t="str">
+      <c r="H22" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I22" s="5" t="str">
+      <c r="I22" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="5" t="str">
+      <c r="F23" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v/>
       </c>
-      <c r="G23" s="5" t="str">
+      <c r="G23" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H23" s="5" t="str">
+      <c r="H23" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I23" s="5" t="str">
+      <c r="I23" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="5" t="str">
+      <c r="F24" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v/>
       </c>
-      <c r="G24" s="5" t="str">
+      <c r="G24" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H24" s="5" t="str">
+      <c r="H24" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I24" s="5" t="str">
+      <c r="I24" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="5" t="str">
+      <c r="F25" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v/>
       </c>
-      <c r="G25" s="5" t="str">
+      <c r="G25" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H25" s="5" t="str">
+      <c r="H25" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I25" s="5" t="str">
+      <c r="I25" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v/>
       </c>

--- a/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - tariffs.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - tariffs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_a_wholesale_calculation\when_minimal_standard_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0E5760-75F3-44DE-A328-60D09737B9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA8F569-0729-4E47-A68E-F42437313763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{029705A5-E2D6-4928-9AB0-F32087606243}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="124">
   <si>
     <t>charge_price</t>
   </si>
@@ -83,9 +83,6 @@
     <t>tariff</t>
   </si>
   <si>
-    <t>6660000000001</t>
-  </si>
-  <si>
     <t>180000000000000001</t>
   </si>
   <si>
@@ -119,30 +116,12 @@
     <t>is_tax</t>
   </si>
   <si>
-    <t>fee-1-co_7770000000001</t>
-  </si>
-  <si>
     <t>fee</t>
   </si>
   <si>
-    <t>fee-2-co_7770000000001</t>
-  </si>
-  <si>
-    <t>fee-3-co_7770000000002</t>
-  </si>
-  <si>
-    <t>subscription-1-co_5550000000001</t>
-  </si>
-  <si>
     <t>subscription</t>
   </si>
   <si>
-    <t>subscription-2-co_5550000000001</t>
-  </si>
-  <si>
-    <t>subscription-3-co_5550000000002</t>
-  </si>
-  <si>
     <t>PT1H</t>
   </si>
   <si>
@@ -296,18 +275,6 @@
     <t>2023-02-01 02:00:00.000000</t>
   </si>
   <si>
-    <t>7770000000001</t>
-  </si>
-  <si>
-    <t>7770000000002</t>
-  </si>
-  <si>
-    <t>5550000000001</t>
-  </si>
-  <si>
-    <t>5550000000002</t>
-  </si>
-  <si>
     <t>2023-02-01 02:00:00</t>
   </si>
   <si>
@@ -365,9 +332,6 @@
     <t>P1M</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>tariff-hourly-2-co_6660000000001</t>
   </si>
   <si>
@@ -383,9 +347,6 @@
     <t>to_date</t>
   </si>
   <si>
-    <t>6660000000002</t>
-  </si>
-  <si>
     <t>6660000000666</t>
   </si>
   <si>
@@ -428,10 +389,58 @@
     <t>calculated</t>
   </si>
   <si>
-    <t>tariff-hourly-3-co_6660000000002--6660000000002--2000000000000--production</t>
-  </si>
-  <si>
     <t>OutputCombination</t>
+  </si>
+  <si>
+    <t>fee-1</t>
+  </si>
+  <si>
+    <t>fee-2</t>
+  </si>
+  <si>
+    <t>fee-3</t>
+  </si>
+  <si>
+    <t>subscription-1</t>
+  </si>
+  <si>
+    <t>subscription-2</t>
+  </si>
+  <si>
+    <t>subscription-3</t>
+  </si>
+  <si>
+    <t>tariff-hourly-1</t>
+  </si>
+  <si>
+    <t>tariff-hourly-2</t>
+  </si>
+  <si>
+    <t>tariff-hourly-3</t>
+  </si>
+  <si>
+    <t>tariff-daily-1</t>
+  </si>
+  <si>
+    <t>tariff-daily-2</t>
+  </si>
+  <si>
+    <t>tariff-daily-3-co_is_tax</t>
+  </si>
+  <si>
+    <t>0000000000800</t>
+  </si>
+  <si>
+    <t>P1D</t>
+  </si>
+  <si>
+    <t>tariff-daily-1-co_6660000000001</t>
+  </si>
+  <si>
+    <t>tariff-daily-2-co_6660000000001</t>
+  </si>
+  <si>
+    <t>tariff-daily-1--0000000000800--3000000000000--consumption--non_profiled</t>
   </si>
 </sst>
 </file>
@@ -505,33 +514,6 @@
   </cellStyles>
   <dxfs count="56">
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -578,6 +560,18 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -652,6 +646,18 @@
       <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="0.000000"/>
     </dxf>
     <dxf>
@@ -677,6 +683,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000"/>
@@ -742,7 +751,7 @@
     <tableColumn id="19" xr3:uid="{2C01FBCF-AEED-47E5-874A-D9CB2BD9D409}" name="calculation_execution_time_start" dataDxfId="53"/>
     <tableColumn id="20" xr3:uid="{37341BB6-4D32-46E1-825A-6DF5D1A0D770}" name="calculation_result_id" dataDxfId="52"/>
     <tableColumn id="2" xr3:uid="{0DDB3581-9EFD-4CD5-A5E4-AA25CC64A8EA}" name="grid_area_code" dataDxfId="51">
-      <calculatedColumnFormula>$AD$17</calculatedColumnFormula>
+      <calculatedColumnFormula>$AC$4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{9ECD4A31-B204-4AAA-BCE0-A55479D4D6F9}" name="energy_supplier_id" dataDxfId="50">
       <calculatedColumnFormula>$E$3</calculatedColumnFormula>
@@ -765,20 +774,20 @@
     <tableColumn id="11" xr3:uid="{DBC31B41-AB04-4AC3-9F13-BFC4F3EEAA92}" name="price" dataDxfId="42">
       <calculatedColumnFormula>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D1E8A453-6F3B-41B3-A143-A8DCE8CA5BCA}" name="amount" dataDxfId="6">
+    <tableColumn id="12" xr3:uid="{D1E8A453-6F3B-41B3-A143-A8DCE8CA5BCA}" name="amount" dataDxfId="41">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1EB903FD-EE7B-4893-8B3E-F5CD1AE80C04}" name="is_tax" dataDxfId="41">
+    <tableColumn id="13" xr3:uid="{1EB903FD-EE7B-4893-8B3E-F5CD1AE80C04}" name="is_tax" dataDxfId="40">
       <calculatedColumnFormula>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{6EA78CDA-CA22-44EA-8F2B-84698D2E2563}" name="charge_code" dataDxfId="40">
+    <tableColumn id="14" xr3:uid="{6EA78CDA-CA22-44EA-8F2B-84698D2E2563}" name="charge_code" dataDxfId="39">
       <calculatedColumnFormula>$C$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{736A1B4A-102F-483A-AA11-B763F06372FC}" name="charge_type" dataDxfId="39"/>
-    <tableColumn id="16" xr3:uid="{64C92314-FA8E-4583-B04E-521FB24FEAD6}" name="charge_owner_id" dataDxfId="38">
+    <tableColumn id="15" xr3:uid="{736A1B4A-102F-483A-AA11-B763F06372FC}" name="charge_type" dataDxfId="38"/>
+    <tableColumn id="16" xr3:uid="{64C92314-FA8E-4583-B04E-521FB24FEAD6}" name="charge_owner_id" dataDxfId="37">
       <calculatedColumnFormula>$D$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{F22DD871-796B-4BA4-81DC-7842494D2C98}" name="amount_type" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{F22DD871-796B-4BA4-81DC-7842494D2C98}" name="amount_type" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -788,8 +797,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4D9288B3-D090-4897-AD89-5C04D501F267}" name="MPTypeMapping" displayName="MPTypeMapping" ref="Z32:AA58" totalsRowShown="0">
   <autoFilter ref="Z32:AA58" xr:uid="{4D9288B3-D090-4897-AD89-5C04D501F267}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7A432737-3E15-4ECB-BE3F-D5902A6BDC2B}" name="MP type mapping" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{FDB8F8B6-CF45-4A18-8759-8120EBE28034}" name="Column1" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{7A432737-3E15-4ECB-BE3F-D5902A6BDC2B}" name="MP type mapping" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{FDB8F8B6-CF45-4A18-8759-8120EBE28034}" name="Column1" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,10 +821,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{69DFFE3D-C209-469C-93C2-67D70897CECD}" name="charge_code"/>
     <tableColumn id="2" xr3:uid="{C2BA6440-DC16-4F9B-96BE-A9A0F237B7ED}" name="charge_type"/>
-    <tableColumn id="3" xr3:uid="{DE42A2CB-11DB-40C9-972F-4996A60A2655}" name="charge_owner_id" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{C462E5E9-79F8-4B90-AE92-B40FC6B4334A}" name="charge_price" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{C24479F8-FACC-4841-9EBA-38DC21F5176A}" name="charge_time" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{95636D1A-8B9F-4BA2-BBFA-C07691BB959D}" name="charge_time_shortened" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{DE42A2CB-11DB-40C9-972F-4996A60A2655}" name="charge_owner_id" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{C462E5E9-79F8-4B90-AE92-B40FC6B4334A}" name="charge_price" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{C24479F8-FACC-4841-9EBA-38DC21F5176A}" name="charge_time" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{95636D1A-8B9F-4BA2-BBFA-C07691BB959D}" name="charge_time_shortened" dataDxfId="30">
       <calculatedColumnFormula>LEFT(E2,19)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -828,12 +837,12 @@
   <autoFilter ref="A1:G26" xr:uid="{3C8F0617-F039-41D8-8DF9-B9925F5FD292}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{ED5AEA4E-C692-4374-B1CE-C8D8084741D8}" name="metering_point_id"/>
-    <tableColumn id="2" xr3:uid="{DBE4F15E-E8C9-4215-9F8E-1B98001B79C1}" name="quantity" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{DBE4F15E-E8C9-4215-9F8E-1B98001B79C1}" name="quantity" dataDxfId="29"/>
     <tableColumn id="3" xr3:uid="{D9F5ACD6-F0C4-4862-A8B2-60E7B62AC08B}" name="quality"/>
-    <tableColumn id="4" xr3:uid="{920B490A-353A-458C-88EB-A4C7A92A30BF}" name="observation_time" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{2111F635-3CBD-450C-8956-C061F4C2F263}" name="metering_point_type" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{111D7211-7EE4-420E-A428-72724271B430}" name="settlement_method" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{E3FD1FFD-3A22-44CC-B91A-56AD78045817}" name="hour" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{920B490A-353A-458C-88EB-A4C7A92A30BF}" name="observation_time" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{2111F635-3CBD-450C-8956-C061F4C2F263}" name="metering_point_type" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{111D7211-7EE4-420E-A428-72724271B430}" name="settlement_method" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{E3FD1FFD-3A22-44CC-B91A-56AD78045817}" name="hour" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -843,57 +852,57 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C23C94B-085F-44ED-9C29-B56B92F1B82F}" name="MeteringPointPeriods" displayName="MeteringPointPeriods" ref="A1:K26" totalsRowShown="0">
   <autoFilter ref="A1:K26" xr:uid="{9C23C94B-085F-44ED-9C29-B56B92F1B82F}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{BDDD221E-D8D0-4820-9E79-C550EEFB1552}" name="metering_point_id" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{3264101E-B7CE-433E-95D3-ECAF67C4B197}" name="type" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{7C0D9AD3-5F1E-4528-9C99-D7C9C0B81870}" name="calculation_type" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{A7E122D3-3055-4D9F-A63D-DBCBA9074AEF}" name="settlement_method" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{BDA72DCA-8178-4B49-AC99-64FE311CA920}" name="grid_area_code" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{7C4FD7ED-486D-43F5-8209-FB7F4E50B817}" name="resolution" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{EA876C75-481F-4F0C-BFAD-2B6485E386C9}" name="from_grid_area_code" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{DDADF541-4D21-429F-AD29-34F72E0F5DB0}" name="to_grid_area_code" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{6873E7DA-25ED-4F63-9CC3-142EBFD5C96C}" name="parent_metering_point_id" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{5E7B70BE-3917-4AE6-83EA-8A871F97FB99}" name="energy_supplier_id" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{BE1BF5F2-4168-4BEC-B68C-E044D0519557}" name="balance_responsible_id" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{BDDD221E-D8D0-4820-9E79-C550EEFB1552}" name="metering_point_id" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{3264101E-B7CE-433E-95D3-ECAF67C4B197}" name="type" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{7C0D9AD3-5F1E-4528-9C99-D7C9C0B81870}" name="calculation_type" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{A7E122D3-3055-4D9F-A63D-DBCBA9074AEF}" name="settlement_method" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{BDA72DCA-8178-4B49-AC99-64FE311CA920}" name="grid_area_code" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{7C4FD7ED-486D-43F5-8209-FB7F4E50B817}" name="resolution" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{EA876C75-481F-4F0C-BFAD-2B6485E386C9}" name="from_grid_area_code" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{DDADF541-4D21-429F-AD29-34F72E0F5DB0}" name="to_grid_area_code" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{6873E7DA-25ED-4F63-9CC3-142EBFD5C96C}" name="parent_metering_point_id" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{5E7B70BE-3917-4AE6-83EA-8A871F97FB99}" name="energy_supplier_id" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{BE1BF5F2-4168-4BEC-B68C-E044D0519557}" name="balance_responsible_id" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{91FEEFC2-9D36-4306-A34D-8A90B0675648}" name="ChargePriceInformationPeriods" displayName="ChargePriceInformationPeriods" ref="A1:G11" totalsRowShown="0">
-  <autoFilter ref="A1:G11" xr:uid="{91FEEFC2-9D36-4306-A34D-8A90B0675648}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{91FEEFC2-9D36-4306-A34D-8A90B0675648}" name="ChargePriceInformationPeriods" displayName="ChargePriceInformationPeriods" ref="A1:G14" totalsRowShown="0">
+  <autoFilter ref="A1:G14" xr:uid="{91FEEFC2-9D36-4306-A34D-8A90B0675648}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CF0BFE7C-60FC-42F9-9181-73CE1D7E20B7}" name="charge_code"/>
     <tableColumn id="2" xr3:uid="{673AD76B-379D-462E-928F-C6D0BFD5A10C}" name="charge_type"/>
-    <tableColumn id="3" xr3:uid="{243A323C-AF81-41DC-852D-4848600A710B}" name="charge_owner_id" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{243A323C-AF81-41DC-852D-4848600A710B}" name="charge_owner_id" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{AD6E792C-2C46-4350-8BAD-EFB6FA436C58}" name="resolution"/>
-    <tableColumn id="5" xr3:uid="{30067025-C046-41BD-B06F-E0FF1088CE27}" name="is_tax" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{0AB395C0-A6FB-4B10-918C-5C09E228F063}" name="from_date" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{62861BBF-4C0E-43ED-8B6A-11C6ED2A05A8}" name="to_date" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{30067025-C046-41BD-B06F-E0FF1088CE27}" name="is_tax" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{0AB395C0-A6FB-4B10-918C-5C09E228F063}" name="from_date" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{62861BBF-4C0E-43ED-8B6A-11C6ED2A05A8}" name="to_date" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}" name="ChargeLinks" displayName="ChargeLinks" ref="A1:I25" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}" name="ChargeLinks" displayName="ChargeLinks" ref="A1:I25" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:I25" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5D866E37-33E8-4772-8058-91EEF8C237C2}" name="charge_code" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{490CB0A2-0EF8-4653-8A5E-9B8094165BDC}" name="charge_type" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{7135A3A1-5051-429E-8261-8AB31A739FB5}" name="charge_owner_id" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{5C6B43BE-2B8F-4A1F-BF82-B40970FE2DC5}" name="metering_point_id" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{59F6ECAA-71F3-40FF-846D-92E4C6D2132D}" name="quantity" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{3847870A-615B-48A2-A325-CD1C7BAED26A}" name="energy_supplier_id" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{5D866E37-33E8-4772-8058-91EEF8C237C2}" name="charge_code" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{490CB0A2-0EF8-4653-8A5E-9B8094165BDC}" name="charge_type" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{7135A3A1-5051-429E-8261-8AB31A739FB5}" name="charge_owner_id" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{5C6B43BE-2B8F-4A1F-BF82-B40970FE2DC5}" name="metering_point_id" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{59F6ECAA-71F3-40FF-846D-92E4C6D2132D}" name="quantity" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{3847870A-615B-48A2-A325-CD1C7BAED26A}" name="energy_supplier_id" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{58B714A4-DCC0-4728-99C2-D5D8472B5530}" name="metering_point_type" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{58B714A4-DCC0-4728-99C2-D5D8472B5530}" name="metering_point_type" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{76EB7E81-9D94-4902-9DF2-1A4EF371DAF0}" name="settlement_method" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{76EB7E81-9D94-4902-9DF2-1A4EF371DAF0}" name="settlement_method" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A2CD103B-C1B7-45F8-A620-EBFFDBF64097}" name="OutputCombination" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{A2CD103B-C1B7-45F8-A620-EBFFDBF64097}" name="OutputCombination" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1220,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70CB6AB-141A-4E8A-8579-9357A3BEFD45}">
   <dimension ref="B1:AD67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:P8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,126 +1271,136 @@
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C3" t="str" cm="1">
-        <f t="array" ref="C3:F3">_xlfn.TEXTSPLIT(C1,"--")</f>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="array" ref="C3:G3">_xlfn.TEXTSPLIT(C1,"--")</f>
+        <v>tariff-daily-1</v>
       </c>
       <c r="D3" t="str">
-        <v>6660000000002</v>
+        <v>0000000000800</v>
       </c>
       <c r="E3" t="str">
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="F3" t="str">
-        <v>production</v>
+        <v>consumption</v>
+      </c>
+      <c r="G3" t="str">
+        <v>non_profiled</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>75</v>
       </c>
       <c r="AD3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" t="s">
         <v>14</v>
       </c>
-      <c r="M4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>15</v>
-      </c>
       <c r="R4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" t="s">
         <v>9</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>10</v>
       </c>
-      <c r="T4" t="s">
-        <v>11</v>
-      </c>
       <c r="U4" t="s">
-        <v>110</v>
+        <v>97</v>
+      </c>
+      <c r="AC4" cm="1">
+        <f t="array" ref="AC4:AC6">_xlfn._xlws.SORT(_xlfn.UNIQUE(MeteringPointPeriods[grid_area_code]))</f>
+        <v>800</v>
       </c>
       <c r="AD4" t="str" cm="1">
-        <f t="array" ref="AD4:AD9">_xlfn.UNIQUE(ChargeLinks[OutputCombination])</f>
-        <v>tariff-hourly-1-co_6660000000001--6660000000001--3000000000000--consumption--non_profiled</v>
+        <f t="array" ref="AD4:AD21">_xlfn.UNIQUE(ChargeLinks[OutputCombination])</f>
+        <v>fee-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F28" si="0">$AD$17</f>
+        <f>$AC$4</f>
         <v>800</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G28" si="1">$E$3</f>
-        <v>2000000000000</v>
+        <f t="shared" ref="G5:G28" si="0">$E$3</f>
+        <v>3000000000000</v>
       </c>
       <c r="H5" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J5" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1392,15 +1411,15 @@
         <v>2023-01-31 23:00:00</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ref="M5:M28" si="2">$F$3</f>
-        <v>production</v>
+        <f t="shared" ref="M5:M28" si="1">$F$3</f>
+        <v>consumption</v>
       </c>
       <c r="N5" s="3" t="str">
-        <f t="shared" ref="N5:N28" si="3">IF($G$3="","",$G$3)</f>
-        <v/>
+        <f t="shared" ref="N5:N28" si="2">IF($G$3="","",$G$3)</f>
+        <v>non_profiled</v>
       </c>
       <c r="O5" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -1415,50 +1434,53 @@
         <v>false</v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" ref="R5:R28" si="4">$C$3</f>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" ref="R5:R28" si="3">$C$3</f>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S5" t="s">
         <v>3</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" ref="T5:T28" si="5">$D$3</f>
-        <v>6660000000002</v>
+        <f t="shared" ref="T5:T28" si="4">$D$3</f>
+        <v>0000000000800</v>
       </c>
       <c r="U5" t="s">
-        <v>115</v>
+        <v>102</v>
+      </c>
+      <c r="AC5">
+        <v>801</v>
       </c>
       <c r="AD5" t="str">
-        <v>tariff-hourly-1-co_6660000000001--6660000000001--1000000000000--consumption--flex</v>
+        <v>fee-2--0000000000800--1000000000000--consumption_from_grid</v>
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F6">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H6" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J6" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1469,15 +1491,15 @@
         <v>2023-02-01 00:00:00</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N6" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O6" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -1492,50 +1514,53 @@
         <v>false</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S6" t="s">
         <v>3</v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U6" t="s">
-        <v>115</v>
+        <v>102</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
       </c>
       <c r="AD6" t="str">
-        <v>tariff-hourly-2-co_6660000000001--6660000000001--1000000000000--consumption_from_grid</v>
+        <v>fee-2--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F7">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H7" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J7" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1546,15 +1571,15 @@
         <v>2023-02-01 01:00:00</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N7" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N7" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O7" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -1569,50 +1594,50 @@
         <v>false</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S7" t="s">
         <v>3</v>
       </c>
       <c r="T7" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AD7" t="str">
-        <v>tariff-hourly-3-co_6660000000002--6660000000002--2000000000000--production</v>
+        <v>fee-3--0000000000800--2000000000000--production</v>
       </c>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F8">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H8" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
-        <v>44.28</v>
+        <v>37.5</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J8" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1623,73 +1648,73 @@
         <v>2023-02-01 02:00:00</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N8" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O8" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v>7.654321</v>
+        <v/>
       </c>
       <c r="P8" s="3" t="str">
         <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
-        <v>338.933334</v>
+        <v/>
       </c>
       <c r="Q8" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S8" t="s">
         <v>3</v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U8" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AD8" t="str">
-        <v>tariff-hourly-4-co_is_tax--6660000000666--1000000000000--consumption--flex</v>
+        <v>subscription-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F9">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H9" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J9" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1700,15 +1725,15 @@
         <v>2023-02-01 03:00:00</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N9" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N9" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O9" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -1723,50 +1748,50 @@
         <v>false</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S9" t="s">
         <v>3</v>
       </c>
       <c r="T9" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AD9" t="str">
-        <v/>
+        <v>subscription-2--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F10">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H10" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J10" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1777,15 +1802,15 @@
         <v>2023-02-01 04:00:00</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N10" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O10" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -1800,47 +1825,50 @@
         <v>false</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S10" t="s">
         <v>3</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U10" t="s">
-        <v>115</v>
+        <v>102</v>
+      </c>
+      <c r="AD10" t="str">
+        <v>subscription-2--0000000000800--2000000000000--production</v>
       </c>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F11">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H11" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J11" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1851,15 +1879,15 @@
         <v>2023-02-01 05:00:00</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N11" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O11" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -1874,47 +1902,50 @@
         <v>false</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S11" t="s">
         <v>3</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U11" t="s">
-        <v>115</v>
+        <v>102</v>
+      </c>
+      <c r="AD11" t="str">
+        <v>subscription-3--0000000000800--2000000000000--own_production</v>
       </c>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F12">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H12" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J12" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1925,15 +1956,15 @@
         <v>2023-02-01 06:00:00</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N12" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O12" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -1948,47 +1979,50 @@
         <v>false</v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S12" t="s">
         <v>3</v>
       </c>
       <c r="T12" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U12" t="s">
-        <v>115</v>
+        <v>102</v>
+      </c>
+      <c r="AD12" t="str">
+        <v>tariff-hourly-1--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F13">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H13" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J13" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1999,15 +2033,15 @@
         <v>2023-02-01 07:00:00</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N13" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N13" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O13" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2022,47 +2056,50 @@
         <v>false</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S13" t="s">
         <v>3</v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U13" t="s">
-        <v>115</v>
+        <v>102</v>
+      </c>
+      <c r="AD13" t="str">
+        <v>tariff-hourly-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F14">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H14" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J14" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2073,15 +2110,15 @@
         <v>2023-02-01 08:00:00</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N14" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N14" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O14" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2096,47 +2133,50 @@
         <v>false</v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S14" t="s">
         <v>3</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U14" t="s">
-        <v>115</v>
+        <v>102</v>
+      </c>
+      <c r="AD14" t="str">
+        <v>tariff-hourly-2--0000000000800--1000000000000--consumption_from_grid</v>
       </c>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F15">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H15" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J15" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2147,15 +2187,15 @@
         <v>2023-02-01 09:00:00</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N15" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O15" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2170,47 +2210,50 @@
         <v>false</v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S15" t="s">
         <v>3</v>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U15" t="s">
-        <v>115</v>
+        <v>102</v>
+      </c>
+      <c r="AD15" t="str">
+        <v>tariff-hourly-3--0000000000800--2000000000000--production</v>
       </c>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F16">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H16" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J16" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2221,15 +2264,15 @@
         <v>2023-02-01 10:00:00</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N16" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O16" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2244,50 +2287,50 @@
         <v>false</v>
       </c>
       <c r="R16" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S16" t="s">
         <v>3</v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>86</v>
+        <v>102</v>
+      </c>
+      <c r="AD16" t="str">
+        <v>tariff-hourly-4-co_is_tax--6660000000666--1000000000000--consumption--flex</v>
       </c>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F17">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H17" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J17" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2298,15 +2341,15 @@
         <v>2023-02-01 11:00:00</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N17" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O17" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2321,51 +2364,50 @@
         <v>false</v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S17" t="s">
         <v>3</v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD17" cm="1">
-        <f t="array" ref="AD17:AD19">_xlfn._xlws.SORT(_xlfn.UNIQUE(MeteringPointPeriods[grid_area_code]))</f>
-        <v>800</v>
+        <v>102</v>
+      </c>
+      <c r="AD17" t="str">
+        <v>tariff-daily-1--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F18">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H18" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J18" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2376,15 +2418,15 @@
         <v>2023-02-01 12:00:00</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N18" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O18" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2399,50 +2441,50 @@
         <v>false</v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S18" t="s">
         <v>3</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD18">
-        <v>801</v>
+        <v>102</v>
+      </c>
+      <c r="AD18" t="str">
+        <v>tariff-daily-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F19">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H19" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J19" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2453,15 +2495,15 @@
         <v>2023-02-01 13:00:00</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N19" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O19" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2476,50 +2518,50 @@
         <v>false</v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S19" t="s">
         <v>3</v>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="AD19" t="str">
+        <v>tariff-daily-2--0000000000800--2000000000000--production</v>
       </c>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F20">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H20" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J20" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2530,15 +2572,15 @@
         <v>2023-02-01 14:00:00</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N20" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O20" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2553,47 +2595,50 @@
         <v>false</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S20" t="s">
         <v>3</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U20" t="s">
-        <v>115</v>
+        <v>102</v>
+      </c>
+      <c r="AD20" t="str">
+        <v>tariff-daily-3-co_is_tax--6660000000666--1000000000000--consumption_from_grid</v>
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F21">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H21" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J21" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2604,15 +2649,15 @@
         <v>2023-02-01 15:00:00</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N21" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O21" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2627,47 +2672,50 @@
         <v>false</v>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S21" t="s">
         <v>3</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U21" t="s">
-        <v>115</v>
+        <v>102</v>
+      </c>
+      <c r="AD21" t="str">
+        <v/>
       </c>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F22">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H22" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J22" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2678,15 +2726,15 @@
         <v>2023-02-01 16:00:00</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N22" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O22" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2701,47 +2749,47 @@
         <v>false</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S22" t="s">
         <v>3</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U22" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F23">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H23" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J23" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2752,15 +2800,15 @@
         <v>2023-02-01 17:00:00</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N23" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O23" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2775,47 +2823,47 @@
         <v>false</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S23" t="s">
         <v>3</v>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U23" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F24">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H24" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J24" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2826,15 +2874,15 @@
         <v>2023-02-01 18:00:00</v>
       </c>
       <c r="L24" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N24" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O24" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2849,47 +2897,47 @@
         <v>false</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S24" t="s">
         <v>3</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U24" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F25">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H25" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J25" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2900,15 +2948,15 @@
         <v>2023-02-01 19:00:00</v>
       </c>
       <c r="L25" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N25" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N25" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O25" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2923,47 +2971,47 @@
         <v>false</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S25" t="s">
         <v>3</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U25" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F26">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H26" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J26" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2974,15 +3022,15 @@
         <v>2023-02-01 20:00:00</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N26" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N26" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O26" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2997,47 +3045,47 @@
         <v>false</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S26" t="s">
         <v>3</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U26" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F27">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H27" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J27" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -3048,15 +3096,15 @@
         <v>2023-02-01 21:00:00</v>
       </c>
       <c r="L27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N27" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N27" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O27" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -3071,47 +3119,47 @@
         <v>false</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S27" t="s">
         <v>3</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U27" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F28">
+        <f>$AC$4</f>
+        <v>800</v>
+      </c>
+      <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="1"/>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="H28" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J28" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -3122,15 +3170,15 @@
         <v>2023-02-01 22:00:00</v>
       </c>
       <c r="L28" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>consumption</v>
+      </c>
+      <c r="N28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>production</v>
-      </c>
-      <c r="N28" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="O28" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -3145,35 +3193,35 @@
         <v>false</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="4"/>
-        <v>tariff-hourly-3-co_6660000000002</v>
+        <f t="shared" si="3"/>
+        <v>tariff-daily-1</v>
       </c>
       <c r="S28" t="s">
         <v>3</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="5"/>
-        <v>6660000000002</v>
+        <f t="shared" si="4"/>
+        <v>0000000000800</v>
       </c>
       <c r="U28" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="Z28" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AA28" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="Z29" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AA29" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AC29" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.25">
@@ -3181,10 +3229,10 @@
       <c r="V30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="str" cm="1">
@@ -3206,10 +3254,10 @@
     <row r="32" spans="2:30" x14ac:dyDescent="0.25">
       <c r="Y32" s="2"/>
       <c r="Z32" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AA32" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="str">
@@ -3219,10 +3267,10 @@
     <row r="33" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y33" s="2"/>
       <c r="Z33" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AA33" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" t="str">
@@ -3232,40 +3280,40 @@
     <row r="34" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y34" s="2"/>
       <c r="Z34" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AB34" s="2"/>
     </row>
     <row r="35" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y35" s="2"/>
       <c r="Z35" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AB35" s="2"/>
     </row>
     <row r="36" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y36" s="2"/>
       <c r="Z36" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB36" s="2"/>
     </row>
     <row r="37" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y37" s="2"/>
       <c r="Z37" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AB37" s="2"/>
     </row>
@@ -3630,7 +3678,7 @@
       <formula1>$AC$31:$AC$58</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{2E219B63-EF29-459D-A57D-F647F4C2EE29}">
-      <formula1>$AD$4:$AD$15</formula1>
+      <formula1>$AD$4:$AD$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3648,7 +3696,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3656,67 +3704,67 @@
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="D2" s="5">
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F2" s="7" t="str">
-        <f t="shared" ref="F2:F8" si="0">LEFT(E2,19)</f>
+        <f t="shared" ref="F2:F25" si="0">LEFT(E2,19)</f>
         <v>2023-02-01 23:00:00</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="D3" s="5">
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F3" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3725,19 +3773,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="D4" s="5">
         <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3746,19 +3794,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D5" s="5">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3767,19 +3815,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3788,19 +3836,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3809,19 +3857,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3829,129 +3877,171 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01 02:00:00</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="5">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03 02:00:00</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="F11" s="7" t="str">
-        <f t="shared" ref="F11:F25" si="1">LEFT(E11,19)</f>
-        <v>2023-02-01 02:00:00</v>
+        <f t="shared" si="0"/>
+        <v>2023-02-03 02:00:00</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="D12" s="5">
-        <v>10</v>
+        <v>7.6543210000000004</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="F12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>2023-02-03 02:00:00</v>
+        <f t="shared" si="0"/>
+        <v>2023-02-01 02:00:00</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="D13" s="5">
-        <v>10</v>
+        <v>666.66666599999996</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>2023-02-03 02:00:00</v>
+        <f t="shared" si="0"/>
+        <v>2023-02-01 02:00:00</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D14" s="5">
-        <v>7.6543210000000004</v>
+        <v>1E-3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>2023-02-01 02:00:00</v>
+        <f t="shared" si="0"/>
+        <v>2023-01-31 23:00:00</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-01-31 23:00:00</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="5">
         <v>666.66666599999996</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>2023-02-01 02:00:00</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="F16" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2023-02-02 23:00:00</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
@@ -3959,7 +4049,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="1"/>
       <c r="F17" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3968,7 +4058,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="1"/>
       <c r="F18" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3977,7 +4067,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="1"/>
       <c r="F19" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3986,7 +4076,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="1"/>
       <c r="F20" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3995,7 +4085,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="1"/>
       <c r="F21" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4004,7 +4094,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="1"/>
       <c r="F22" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4013,7 +4103,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="1"/>
       <c r="F23" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4022,7 +4112,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="1"/>
       <c r="F24" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4031,7 +4121,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="1"/>
       <c r="F25" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4064,25 +4154,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4093,10 +4183,10 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4113,16 +4203,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3">
         <v>2.5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4139,16 +4229,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3">
         <v>2.5</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4165,16 +4255,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3">
         <v>2.5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4191,16 +4281,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E6" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4217,16 +4307,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3">
         <v>3.379</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4243,16 +4333,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3">
         <v>3.38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4269,16 +4359,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3">
         <v>3.3780000000000001</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E9" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4295,16 +4385,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E10" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4423,16 +4513,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3">
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E17" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4449,16 +4539,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3">
         <v>3.3570000000000002</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E18" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4475,16 +4565,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="3">
         <v>40.158999999999999</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E19" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4501,16 +4591,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3">
         <v>4.1210000000000004</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E20" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4527,16 +4617,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E21" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4553,16 +4643,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E22" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4579,16 +4669,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E23" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4684,72 +4774,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2">
         <v>800</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -4757,51 +4847,51 @@
         <v>800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2">
         <v>800</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4809,12 +4899,12 @@
         <v>800</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -4824,61 +4914,61 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>800</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>800</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4886,24 +4976,24 @@
         <v>800</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4911,22 +5001,22 @@
         <v>800</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4934,24 +5024,24 @@
         <v>800</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4959,7 +5049,7 @@
         <v>801</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G11" s="2">
         <v>801</v>
@@ -5176,10 +5266,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0DBE91-61E8-4AF4-8F90-EB71E87C01CF}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G12" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5195,256 +5285,299 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1">
         <v>42400.958333333336</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1">
         <v>42400.958333333336</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1">
         <v>42400.958333333336</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F5" s="1">
         <v>42400.958333333336</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1">
         <v>42400.958333333336</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1">
         <v>42400.958333333336</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F8" s="1">
         <v>42400.958333333336</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F9" s="1">
         <v>42400.958333333336</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F10" s="1">
         <v>42400.958333333336</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F11" s="1">
         <v>42400.958333333336</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="1">
+        <v>42400.958333333336</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1">
+        <v>42400.958333333336</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="1">
+        <v>42400.958333333336</v>
+      </c>
+      <c r="G14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5459,7 +5592,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5477,52 +5610,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>3000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -5530,65 +5663,65 @@
       </c>
       <c r="H2" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
+        <v>flex</v>
       </c>
       <c r="I2" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-1-co_6660000000001--6660000000001--3000000000000--consumption--non_profiled</v>
+        <v>fee-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>3000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v>consumption_from_grid</v>
       </c>
       <c r="H3" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="I3" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-1-co_6660000000001--6660000000001--3000000000000--consumption--non_profiled</v>
+        <v>fee-2--0000000000800--1000000000000--consumption_from_grid</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F4" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="G4" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -5596,61 +5729,61 @@
       </c>
       <c r="H4" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v>non_profiled</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-1-co_6660000000001--6660000000001--1000000000000--consumption--flex</v>
+        <v>fee-2--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
+        <v>2000000000000</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="H5" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="I5" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-1-co_6660000000001--6660000000001--1000000000000--consumption--flex</v>
+        <v>fee-3--0000000000800--2000000000000--production</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -5658,129 +5791,139 @@
       </c>
       <c r="G6" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption_from_grid</v>
+        <v>consumption</v>
       </c>
       <c r="H6" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>flex</v>
       </c>
       <c r="I6" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-2-co_6660000000001--6660000000001--1000000000000--consumption_from_grid</v>
+        <v>subscription-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v>consumption</v>
       </c>
       <c r="H7" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-3-co_6660000000002--6660000000002--2000000000000--production</v>
+        <v>subscription-2--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="G8" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v>consumption</v>
       </c>
       <c r="H8" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="I8" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-3-co_6660000000002--6660000000002--2000000000000--production</v>
+        <v>subscription-2--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
+        <v>2000000000000</v>
       </c>
       <c r="G9" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="H9" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="I9" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-4-co_is_tax--6660000000666--1000000000000--consumption--flex</v>
+        <v>subscription-2--0000000000800--2000000000000--production</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F10" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v/>
+        <v>2000000000000</v>
       </c>
       <c r="G10" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>own_production</v>
       </c>
       <c r="H10" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -5788,114 +5931,164 @@
       </c>
       <c r="I10" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v/>
+        <v>subscription-3--0000000000800--2000000000000--own_production</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F11" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v/>
+        <v>3000000000000</v>
       </c>
       <c r="G11" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>consumption</v>
       </c>
       <c r="H11" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="I11" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v/>
+        <v>tariff-hourly-1--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F12" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v/>
+        <v>3000000000000</v>
       </c>
       <c r="G12" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>consumption</v>
       </c>
       <c r="H12" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="I12" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v/>
+        <v>tariff-hourly-1--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F13" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v/>
+        <v>1000000000000</v>
       </c>
       <c r="G13" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>consumption</v>
       </c>
       <c r="H13" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>flex</v>
       </c>
       <c r="I13" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v/>
+        <v>tariff-hourly-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F14" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v/>
+        <v>1000000000000</v>
       </c>
       <c r="G14" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>consumption</v>
       </c>
       <c r="H14" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>flex</v>
       </c>
       <c r="I14" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v/>
+        <v>tariff-hourly-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F15" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v/>
+        <v>1000000000000</v>
       </c>
       <c r="G15" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>consumption_from_grid</v>
       </c>
       <c r="H15" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -5903,22 +6096,32 @@
       </c>
       <c r="I15" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v/>
+        <v>tariff-hourly-2--0000000000800--1000000000000--consumption_from_grid</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F16" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v/>
+        <v>2000000000000</v>
       </c>
       <c r="G16" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>production</v>
       </c>
       <c r="H16" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -5926,22 +6129,32 @@
       </c>
       <c r="I16" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v/>
+        <v>tariff-hourly-3--0000000000800--2000000000000--production</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F17" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v/>
+        <v>2000000000000</v>
       </c>
       <c r="G17" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>production</v>
       </c>
       <c r="H17" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -5949,114 +6162,164 @@
       </c>
       <c r="I17" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v/>
+        <v>tariff-hourly-3--0000000000800--2000000000000--production</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F18" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v/>
+        <v>1000000000000</v>
       </c>
       <c r="G18" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>consumption</v>
       </c>
       <c r="H18" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>flex</v>
       </c>
       <c r="I18" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v/>
+        <v>tariff-hourly-4-co_is_tax--6660000000666--1000000000000--consumption--flex</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F19" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v/>
+        <v>3000000000000</v>
       </c>
       <c r="G19" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>consumption</v>
       </c>
       <c r="H19" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="I19" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v/>
+        <v>tariff-daily-1--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F20" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v/>
+        <v>3000000000000</v>
       </c>
       <c r="G20" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>consumption</v>
       </c>
       <c r="H20" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="I20" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v/>
+        <v>tariff-daily-1--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F21" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v/>
+        <v>1000000000000</v>
       </c>
       <c r="G21" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>consumption</v>
       </c>
       <c r="H21" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>flex</v>
       </c>
       <c r="I21" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v/>
+        <v>tariff-daily-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F22" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v/>
+        <v>2000000000000</v>
       </c>
       <c r="G22" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>production</v>
       </c>
       <c r="H22" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -6064,22 +6327,32 @@
       </c>
       <c r="I22" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v/>
+        <v>tariff-daily-2--0000000000800--2000000000000--production</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F23" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v/>
+        <v>1000000000000</v>
       </c>
       <c r="G23" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>consumption_from_grid</v>
       </c>
       <c r="H23" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -6087,7 +6360,7 @@
       </c>
       <c r="I23" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v/>
+        <v>tariff-daily-3-co_is_tax--6660000000666--1000000000000--consumption_from_grid</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">

--- a/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - tariffs.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_a_wholesale_calculation/when_minimal_standard_scenario/Oracle - tariffs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_a_wholesale_calculation\when_minimal_standard_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA8F569-0729-4E47-A68E-F42437313763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5D9B41-4629-42D1-BE4C-FE1156115C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{029705A5-E2D6-4928-9AB0-F32087606243}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{029705A5-E2D6-4928-9AB0-F32087606243}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="119">
   <si>
     <t>charge_price</t>
   </si>
@@ -77,9 +77,6 @@
     <t>170000000000000101</t>
   </si>
   <si>
-    <t>tariff-hourly-1-co_6660000000001</t>
-  </si>
-  <si>
     <t>tariff</t>
   </si>
   <si>
@@ -323,21 +320,12 @@
     <t>Available dates</t>
   </si>
   <si>
-    <t>2023-02-01</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
     <t>P1M</t>
   </si>
   <si>
-    <t>tariff-hourly-2-co_6660000000001</t>
-  </si>
-  <si>
-    <t>tariff-hourly-3-co_6660000000002</t>
-  </si>
-  <si>
     <t>tariff-hourly-4-co_is_tax</t>
   </si>
   <si>
@@ -434,13 +422,10 @@
     <t>P1D</t>
   </si>
   <si>
-    <t>tariff-daily-1-co_6660000000001</t>
-  </si>
-  <si>
-    <t>tariff-daily-2-co_6660000000001</t>
-  </si>
-  <si>
-    <t>tariff-daily-1--0000000000800--3000000000000--consumption--non_profiled</t>
+    <t>tariff-hourly-1--0000000000800--3000000000000--consumption--non_profiled</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
   </si>
 </sst>
 </file>
@@ -513,6 +498,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="56">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -691,9 +679,6 @@
       <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -771,23 +756,23 @@
     <tableColumn id="10" xr3:uid="{0EF4D2F5-DCAF-46F8-9394-603FD6C1F55C}" name="settlement_method" dataDxfId="43">
       <calculatedColumnFormula>IF($G$3="","",$G$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{DBC31B41-AB04-4AC3-9F13-BFC4F3EEAA92}" name="price" dataDxfId="42">
+    <tableColumn id="11" xr3:uid="{DBC31B41-AB04-4AC3-9F13-BFC4F3EEAA92}" name="price" dataDxfId="0">
       <calculatedColumnFormula>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D1E8A453-6F3B-41B3-A143-A8DCE8CA5BCA}" name="amount" dataDxfId="41">
+    <tableColumn id="12" xr3:uid="{D1E8A453-6F3B-41B3-A143-A8DCE8CA5BCA}" name="amount" dataDxfId="42">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1EB903FD-EE7B-4893-8B3E-F5CD1AE80C04}" name="is_tax" dataDxfId="40">
+    <tableColumn id="13" xr3:uid="{1EB903FD-EE7B-4893-8B3E-F5CD1AE80C04}" name="is_tax" dataDxfId="41">
       <calculatedColumnFormula>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{6EA78CDA-CA22-44EA-8F2B-84698D2E2563}" name="charge_code" dataDxfId="39">
+    <tableColumn id="14" xr3:uid="{6EA78CDA-CA22-44EA-8F2B-84698D2E2563}" name="charge_code" dataDxfId="40">
       <calculatedColumnFormula>$C$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{736A1B4A-102F-483A-AA11-B763F06372FC}" name="charge_type" dataDxfId="38"/>
-    <tableColumn id="16" xr3:uid="{64C92314-FA8E-4583-B04E-521FB24FEAD6}" name="charge_owner_id" dataDxfId="37">
+    <tableColumn id="15" xr3:uid="{736A1B4A-102F-483A-AA11-B763F06372FC}" name="charge_type" dataDxfId="39"/>
+    <tableColumn id="16" xr3:uid="{64C92314-FA8E-4583-B04E-521FB24FEAD6}" name="charge_owner_id" dataDxfId="38">
       <calculatedColumnFormula>$D$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{F22DD871-796B-4BA4-81DC-7842494D2C98}" name="amount_type" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{F22DD871-796B-4BA4-81DC-7842494D2C98}" name="amount_type" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -797,8 +782,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4D9288B3-D090-4897-AD89-5C04D501F267}" name="MPTypeMapping" displayName="MPTypeMapping" ref="Z32:AA58" totalsRowShown="0">
   <autoFilter ref="Z32:AA58" xr:uid="{4D9288B3-D090-4897-AD89-5C04D501F267}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7A432737-3E15-4ECB-BE3F-D5902A6BDC2B}" name="MP type mapping" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{FDB8F8B6-CF45-4A18-8759-8120EBE28034}" name="Column1" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{7A432737-3E15-4ECB-BE3F-D5902A6BDC2B}" name="MP type mapping" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{FDB8F8B6-CF45-4A18-8759-8120EBE28034}" name="Column1" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -821,10 +806,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{69DFFE3D-C209-469C-93C2-67D70897CECD}" name="charge_code"/>
     <tableColumn id="2" xr3:uid="{C2BA6440-DC16-4F9B-96BE-A9A0F237B7ED}" name="charge_type"/>
-    <tableColumn id="3" xr3:uid="{DE42A2CB-11DB-40C9-972F-4996A60A2655}" name="charge_owner_id" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{C462E5E9-79F8-4B90-AE92-B40FC6B4334A}" name="charge_price" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{C24479F8-FACC-4841-9EBA-38DC21F5176A}" name="charge_time" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{95636D1A-8B9F-4BA2-BBFA-C07691BB959D}" name="charge_time_shortened" dataDxfId="30">
+    <tableColumn id="3" xr3:uid="{DE42A2CB-11DB-40C9-972F-4996A60A2655}" name="charge_owner_id" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{C462E5E9-79F8-4B90-AE92-B40FC6B4334A}" name="charge_price" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{C24479F8-FACC-4841-9EBA-38DC21F5176A}" name="charge_time" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{95636D1A-8B9F-4BA2-BBFA-C07691BB959D}" name="charge_time_shortened" dataDxfId="31">
       <calculatedColumnFormula>LEFT(E2,19)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -837,12 +822,12 @@
   <autoFilter ref="A1:G26" xr:uid="{3C8F0617-F039-41D8-8DF9-B9925F5FD292}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{ED5AEA4E-C692-4374-B1CE-C8D8084741D8}" name="metering_point_id"/>
-    <tableColumn id="2" xr3:uid="{DBE4F15E-E8C9-4215-9F8E-1B98001B79C1}" name="quantity" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{DBE4F15E-E8C9-4215-9F8E-1B98001B79C1}" name="quantity" dataDxfId="30"/>
     <tableColumn id="3" xr3:uid="{D9F5ACD6-F0C4-4862-A8B2-60E7B62AC08B}" name="quality"/>
-    <tableColumn id="4" xr3:uid="{920B490A-353A-458C-88EB-A4C7A92A30BF}" name="observation_time" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{2111F635-3CBD-450C-8956-C061F4C2F263}" name="metering_point_type" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{111D7211-7EE4-420E-A428-72724271B430}" name="settlement_method" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{E3FD1FFD-3A22-44CC-B91A-56AD78045817}" name="hour" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{920B490A-353A-458C-88EB-A4C7A92A30BF}" name="observation_time" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{2111F635-3CBD-450C-8956-C061F4C2F263}" name="metering_point_type" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{111D7211-7EE4-420E-A428-72724271B430}" name="settlement_method" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{E3FD1FFD-3A22-44CC-B91A-56AD78045817}" name="hour" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -852,17 +837,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C23C94B-085F-44ED-9C29-B56B92F1B82F}" name="MeteringPointPeriods" displayName="MeteringPointPeriods" ref="A1:K26" totalsRowShown="0">
   <autoFilter ref="A1:K26" xr:uid="{9C23C94B-085F-44ED-9C29-B56B92F1B82F}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{BDDD221E-D8D0-4820-9E79-C550EEFB1552}" name="metering_point_id" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{3264101E-B7CE-433E-95D3-ECAF67C4B197}" name="type" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{7C0D9AD3-5F1E-4528-9C99-D7C9C0B81870}" name="calculation_type" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{A7E122D3-3055-4D9F-A63D-DBCBA9074AEF}" name="settlement_method" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{BDA72DCA-8178-4B49-AC99-64FE311CA920}" name="grid_area_code" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{7C4FD7ED-486D-43F5-8209-FB7F4E50B817}" name="resolution" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{EA876C75-481F-4F0C-BFAD-2B6485E386C9}" name="from_grid_area_code" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{DDADF541-4D21-429F-AD29-34F72E0F5DB0}" name="to_grid_area_code" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{6873E7DA-25ED-4F63-9CC3-142EBFD5C96C}" name="parent_metering_point_id" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{5E7B70BE-3917-4AE6-83EA-8A871F97FB99}" name="energy_supplier_id" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{BE1BF5F2-4168-4BEC-B68C-E044D0519557}" name="balance_responsible_id" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{BDDD221E-D8D0-4820-9E79-C550EEFB1552}" name="metering_point_id" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{3264101E-B7CE-433E-95D3-ECAF67C4B197}" name="type" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{7C0D9AD3-5F1E-4528-9C99-D7C9C0B81870}" name="calculation_type" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{A7E122D3-3055-4D9F-A63D-DBCBA9074AEF}" name="settlement_method" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{BDA72DCA-8178-4B49-AC99-64FE311CA920}" name="grid_area_code" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{7C4FD7ED-486D-43F5-8209-FB7F4E50B817}" name="resolution" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{EA876C75-481F-4F0C-BFAD-2B6485E386C9}" name="from_grid_area_code" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{DDADF541-4D21-429F-AD29-34F72E0F5DB0}" name="to_grid_area_code" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{6873E7DA-25ED-4F63-9CC3-142EBFD5C96C}" name="parent_metering_point_id" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{5E7B70BE-3917-4AE6-83EA-8A871F97FB99}" name="energy_supplier_id" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{BE1BF5F2-4168-4BEC-B68C-E044D0519557}" name="balance_responsible_id" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -874,35 +859,35 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CF0BFE7C-60FC-42F9-9181-73CE1D7E20B7}" name="charge_code"/>
     <tableColumn id="2" xr3:uid="{673AD76B-379D-462E-928F-C6D0BFD5A10C}" name="charge_type"/>
-    <tableColumn id="3" xr3:uid="{243A323C-AF81-41DC-852D-4848600A710B}" name="charge_owner_id" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{243A323C-AF81-41DC-852D-4848600A710B}" name="charge_owner_id" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{AD6E792C-2C46-4350-8BAD-EFB6FA436C58}" name="resolution"/>
-    <tableColumn id="5" xr3:uid="{30067025-C046-41BD-B06F-E0FF1088CE27}" name="is_tax" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{0AB395C0-A6FB-4B10-918C-5C09E228F063}" name="from_date" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{62861BBF-4C0E-43ED-8B6A-11C6ED2A05A8}" name="to_date" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{30067025-C046-41BD-B06F-E0FF1088CE27}" name="is_tax" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{0AB395C0-A6FB-4B10-918C-5C09E228F063}" name="from_date" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{62861BBF-4C0E-43ED-8B6A-11C6ED2A05A8}" name="to_date" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}" name="ChargeLinks" displayName="ChargeLinks" ref="A1:I25" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}" name="ChargeLinks" displayName="ChargeLinks" ref="A1:I25" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:I25" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5D866E37-33E8-4772-8058-91EEF8C237C2}" name="charge_code" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{490CB0A2-0EF8-4653-8A5E-9B8094165BDC}" name="charge_type" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{7135A3A1-5051-429E-8261-8AB31A739FB5}" name="charge_owner_id" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{5C6B43BE-2B8F-4A1F-BF82-B40970FE2DC5}" name="metering_point_id" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{59F6ECAA-71F3-40FF-846D-92E4C6D2132D}" name="quantity" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{3847870A-615B-48A2-A325-CD1C7BAED26A}" name="energy_supplier_id" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{5D866E37-33E8-4772-8058-91EEF8C237C2}" name="charge_code" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{490CB0A2-0EF8-4653-8A5E-9B8094165BDC}" name="charge_type" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{7135A3A1-5051-429E-8261-8AB31A739FB5}" name="charge_owner_id" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{5C6B43BE-2B8F-4A1F-BF82-B40970FE2DC5}" name="metering_point_id" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{59F6ECAA-71F3-40FF-846D-92E4C6D2132D}" name="quantity" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{3847870A-615B-48A2-A325-CD1C7BAED26A}" name="energy_supplier_id" dataDxfId="4">
       <calculatedColumnFormula>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{58B714A4-DCC0-4728-99C2-D5D8472B5530}" name="metering_point_type" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{58B714A4-DCC0-4728-99C2-D5D8472B5530}" name="metering_point_type" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{76EB7E81-9D94-4902-9DF2-1A4EF371DAF0}" name="settlement_method" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{76EB7E81-9D94-4902-9DF2-1A4EF371DAF0}" name="settlement_method" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A2CD103B-C1B7-45F8-A620-EBFFDBF64097}" name="OutputCombination" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{A2CD103B-C1B7-45F8-A620-EBFFDBF64097}" name="OutputCombination" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1229,61 +1214,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70CB6AB-141A-4E8A-8579-9357A3BEFD45}">
   <dimension ref="B1:AD67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.85546875" customWidth="1"/>
-    <col min="25" max="25" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.1796875" customWidth="1"/>
+    <col min="15" max="15" width="15.1796875" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" customWidth="1"/>
+    <col min="18" max="18" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.81640625" customWidth="1"/>
+    <col min="25" max="25" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="25" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.85546875" customWidth="1"/>
-    <col min="35" max="35" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.85546875" customWidth="1"/>
+    <col min="30" max="31" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.81640625" customWidth="1"/>
+    <col min="35" max="35" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C1" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C3" t="str" cm="1">
         <f t="array" ref="C3:G3">_xlfn.TEXTSPLIT(C1,"--")</f>
-        <v>tariff-daily-1</v>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="D3" t="str">
         <v>0000000000800</v>
@@ -1298,72 +1283,72 @@
         <v>non_profiled</v>
       </c>
       <c r="AC3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s">
         <v>75</v>
       </c>
-      <c r="AD3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="K4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>14</v>
-      </c>
       <c r="R4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" t="s">
         <v>8</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>9</v>
       </c>
-      <c r="T4" t="s">
-        <v>10</v>
-      </c>
       <c r="U4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AC4" cm="1">
         <f t="array" ref="AC4:AC6">_xlfn._xlws.SORT(_xlfn.UNIQUE(MeteringPointPeriods[grid_area_code]))</f>
@@ -1374,25 +1359,25 @@
         <v>fee-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F5">
-        <f>$AC$4</f>
+        <f t="shared" ref="F5:F28" si="0">$AC$4</f>
         <v>800</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G28" si="0">$E$3</f>
+        <f t="shared" ref="G5:G28" si="1">$E$3</f>
         <v>3000000000000</v>
       </c>
       <c r="H5" t="str">
@@ -1400,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1408,17 +1393,17 @@
       </c>
       <c r="K5" t="str" cm="1">
         <f t="array" ref="K5">CONCATENATE(INDEX(AC30:AC58,MATCH(H1,AC30:AC58,0)-1,1)," 23:00:00")</f>
-        <v>2023-01-31 23:00:00</v>
+        <v>2023-02-02 23:00:00</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ref="M5:M28" si="1">$F$3</f>
+        <f t="shared" ref="M5:M28" si="2">$F$3</f>
         <v>consumption</v>
       </c>
       <c r="N5" s="3" t="str">
-        <f t="shared" ref="N5:N28" si="2">IF($G$3="","",$G$3)</f>
+        <f t="shared" ref="N5:N28" si="3">IF($G$3="","",$G$3)</f>
         <v>non_profiled</v>
       </c>
       <c r="O5" s="3" t="str">
@@ -1434,18 +1419,18 @@
         <v>false</v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" ref="R5:R28" si="3">$C$3</f>
-        <v>tariff-daily-1</v>
+        <f t="shared" ref="R5:R28" si="4">$C$3</f>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" ref="T5:T28" si="4">$D$3</f>
+        <f t="shared" ref="T5:T28" si="5">$D$3</f>
         <v>0000000000800</v>
       </c>
       <c r="U5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AC5">
         <v>801</v>
@@ -1454,25 +1439,25 @@
         <v>fee-2--0000000000800--1000000000000--consumption_from_grid</v>
       </c>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F6">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H6" t="str">
@@ -1480,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1488,17 +1473,17 @@
       </c>
       <c r="K6" t="str">
         <f>CONCATENATE(H$1," 00:00:00")</f>
-        <v>2023-02-01 00:00:00</v>
+        <v>2023-02-03 00:00:00</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N6" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O6" s="3" t="str">
@@ -1514,18 +1499,18 @@
         <v>false</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1534,25 +1519,25 @@
         <v>fee-2--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F7">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H7" t="str">
@@ -1560,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J7" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1568,17 +1553,17 @@
       </c>
       <c r="K7" t="str">
         <f>CONCATENATE(H$1," 01:00:00")</f>
-        <v>2023-02-01 01:00:00</v>
+        <v>2023-02-03 01:00:00</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N7" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O7" s="3" t="str">
@@ -1594,119 +1579,119 @@
         <v>false</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD7" t="str">
         <v>fee-3--0000000000800--2000000000000--production</v>
       </c>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F8">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H8" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
-        <v>['measured']</v>
+        <v>['missing']</v>
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE(H$1," 02:00:00")</f>
-        <v>2023-02-01 02:00:00</v>
+        <v>2023-02-03 02:00:00</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N8" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O8" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="P8" s="3" t="str">
         <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="Q8" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
         <v>false</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD8" t="str">
         <v>subscription-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F9">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H9" t="str">
@@ -1714,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1722,17 +1707,17 @@
       </c>
       <c r="K9" t="str">
         <f>CONCATENATE(H$1," 03:00:00")</f>
-        <v>2023-02-01 03:00:00</v>
+        <v>2023-02-03 03:00:00</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N9" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O9" s="3" t="str">
@@ -1748,42 +1733,42 @@
         <v>false</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD9" t="str">
         <v>subscription-2--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F10">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H10" t="str">
@@ -1791,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1799,17 +1784,17 @@
       </c>
       <c r="K10" t="str">
         <f>CONCATENATE(H$1," 04:00:00")</f>
-        <v>2023-02-01 04:00:00</v>
+        <v>2023-02-03 04:00:00</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N10" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O10" s="3" t="str">
@@ -1825,42 +1810,42 @@
         <v>false</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD10" t="str">
         <v>subscription-2--0000000000800--2000000000000--production</v>
       </c>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F11">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H11" t="str">
@@ -1868,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1876,17 +1861,17 @@
       </c>
       <c r="K11" t="str">
         <f>CONCATENATE(H$1," 05:00:00")</f>
-        <v>2023-02-01 05:00:00</v>
+        <v>2023-02-03 05:00:00</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N11" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O11" s="3" t="str">
@@ -1902,42 +1887,42 @@
         <v>false</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD11" t="str">
         <v>subscription-3--0000000000800--2000000000000--own_production</v>
       </c>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F12">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H12" t="str">
@@ -1945,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1953,17 +1938,17 @@
       </c>
       <c r="K12" t="str">
         <f>CONCATENATE(H$1," 06:00:00")</f>
-        <v>2023-02-01 06:00:00</v>
+        <v>2023-02-03 06:00:00</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N12" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O12" s="3" t="str">
@@ -1979,42 +1964,42 @@
         <v>false</v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD12" t="str">
         <v>tariff-hourly-1--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F13">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H13" t="str">
@@ -2022,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2030,17 +2015,17 @@
       </c>
       <c r="K13" t="str">
         <f>CONCATENATE(H$1," 07:00:00")</f>
-        <v>2023-02-01 07:00:00</v>
+        <v>2023-02-03 07:00:00</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N13" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O13" s="3" t="str">
@@ -2056,42 +2041,42 @@
         <v>false</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD13" t="str">
         <v>tariff-hourly-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F14">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H14" t="str">
@@ -2099,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2107,17 +2092,17 @@
       </c>
       <c r="K14" t="str">
         <f>CONCATENATE(H$1," 08:00:00")</f>
-        <v>2023-02-01 08:00:00</v>
+        <v>2023-02-03 08:00:00</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N14" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O14" s="3" t="str">
@@ -2133,42 +2118,42 @@
         <v>false</v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD14" t="str">
         <v>tariff-hourly-2--0000000000800--1000000000000--consumption_from_grid</v>
       </c>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F15">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H15" t="str">
@@ -2176,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J15" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2184,17 +2169,17 @@
       </c>
       <c r="K15" t="str">
         <f>CONCATENATE(H$1," 09:00:00")</f>
-        <v>2023-02-01 09:00:00</v>
+        <v>2023-02-03 09:00:00</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N15" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O15" s="3" t="str">
@@ -2210,42 +2195,42 @@
         <v>false</v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD15" t="str">
         <v>tariff-hourly-3--0000000000800--2000000000000--production</v>
       </c>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F16">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H16" t="str">
@@ -2253,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J16" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2261,17 +2246,17 @@
       </c>
       <c r="K16" t="str">
         <f>CONCATENATE(H$1," 10:00:00")</f>
-        <v>2023-02-01 10:00:00</v>
+        <v>2023-02-03 10:00:00</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N16" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O16" s="3" t="str">
@@ -2287,42 +2272,42 @@
         <v>false</v>
       </c>
       <c r="R16" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD16" t="str">
         <v>tariff-hourly-4-co_is_tax--6660000000666--1000000000000--consumption--flex</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F17">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H17" t="str">
@@ -2330,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2338,17 +2323,17 @@
       </c>
       <c r="K17" t="str">
         <f>CONCATENATE(H$1," 11:00:00")</f>
-        <v>2023-02-01 11:00:00</v>
+        <v>2023-02-03 11:00:00</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N17" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O17" s="3" t="str">
@@ -2364,42 +2349,42 @@
         <v>false</v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD17" t="str">
         <v>tariff-daily-1--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F18">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H18" t="str">
@@ -2407,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2415,17 +2400,17 @@
       </c>
       <c r="K18" t="str">
         <f>CONCATENATE(H$1," 12:00:00")</f>
-        <v>2023-02-01 12:00:00</v>
+        <v>2023-02-03 12:00:00</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N18" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O18" s="3" t="str">
@@ -2441,42 +2426,42 @@
         <v>false</v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD18" t="str">
         <v>tariff-daily-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F19">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H19" t="str">
@@ -2484,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2492,17 +2477,17 @@
       </c>
       <c r="K19" t="str">
         <f>CONCATENATE(H$1," 13:00:00")</f>
-        <v>2023-02-01 13:00:00</v>
+        <v>2023-02-03 13:00:00</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N19" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O19" s="3" t="str">
@@ -2518,42 +2503,42 @@
         <v>false</v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD19" t="str">
         <v>tariff-daily-2--0000000000800--2000000000000--production</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F20">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H20" t="str">
@@ -2561,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2569,17 +2554,17 @@
       </c>
       <c r="K20" t="str">
         <f>CONCATENATE(H$1," 14:00:00")</f>
-        <v>2023-02-01 14:00:00</v>
+        <v>2023-02-03 14:00:00</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N20" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O20" s="3" t="str">
@@ -2595,42 +2580,42 @@
         <v>false</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD20" t="str">
         <v>tariff-daily-3-co_is_tax--6660000000666--1000000000000--consumption_from_grid</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F21">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H21" t="str">
@@ -2638,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2646,17 +2631,17 @@
       </c>
       <c r="K21" t="str">
         <f>CONCATENATE(H$1," 15:00:00")</f>
-        <v>2023-02-01 15:00:00</v>
+        <v>2023-02-03 15:00:00</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N21" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O21" s="3" t="str">
@@ -2672,42 +2657,42 @@
         <v>false</v>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AD21" t="str">
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F22">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H22" t="str">
@@ -2715,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J22" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2723,17 +2708,17 @@
       </c>
       <c r="K22" t="str">
         <f>CONCATENATE(H$1," 16:00:00")</f>
-        <v>2023-02-01 16:00:00</v>
+        <v>2023-02-03 16:00:00</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N22" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O22" s="3" t="str">
@@ -2749,39 +2734,39 @@
         <v>false</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F23">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H23" t="str">
@@ -2789,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J23" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2797,17 +2782,17 @@
       </c>
       <c r="K23" t="str">
         <f>CONCATENATE(H$1," 17:00:00")</f>
-        <v>2023-02-01 17:00:00</v>
+        <v>2023-02-03 17:00:00</v>
       </c>
       <c r="L23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N23" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O23" s="3" t="str">
@@ -2823,39 +2808,39 @@
         <v>false</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H24" t="str">
@@ -2863,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J24" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2871,17 +2856,17 @@
       </c>
       <c r="K24" t="str">
         <f>CONCATENATE(H$1," 18:00:00")</f>
-        <v>2023-02-01 18:00:00</v>
+        <v>2023-02-03 18:00:00</v>
       </c>
       <c r="L24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N24" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O24" s="3" t="str">
@@ -2897,39 +2882,39 @@
         <v>false</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F25">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H25" t="str">
@@ -2937,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J25" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2945,17 +2930,17 @@
       </c>
       <c r="K25" t="str">
         <f>CONCATENATE(H$1," 19:00:00")</f>
-        <v>2023-02-01 19:00:00</v>
+        <v>2023-02-03 19:00:00</v>
       </c>
       <c r="L25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N25" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O25" s="3" t="str">
@@ -2971,39 +2956,39 @@
         <v>false</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F26">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H26" t="str">
@@ -3011,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J26" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -3019,17 +3004,17 @@
       </c>
       <c r="K26" t="str">
         <f>CONCATENATE(H$1," 20:00:00")</f>
-        <v>2023-02-01 20:00:00</v>
+        <v>2023-02-03 20:00:00</v>
       </c>
       <c r="L26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N26" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O26" s="3" t="str">
@@ -3045,39 +3030,39 @@
         <v>false</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F27">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H27" t="str">
@@ -3085,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J27" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -3093,17 +3078,17 @@
       </c>
       <c r="K27" t="str">
         <f>CONCATENATE(H$1," 21:00:00")</f>
-        <v>2023-02-01 21:00:00</v>
+        <v>2023-02-03 21:00:00</v>
       </c>
       <c r="L27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N27" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O27" s="3" t="str">
@@ -3119,39 +3104,39 @@
         <v>false</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F28">
-        <f>$AC$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000000</v>
       </c>
       <c r="H28" t="str">
@@ -3159,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J28" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -3167,17 +3152,17 @@
       </c>
       <c r="K28" t="str">
         <f>CONCATENATE(H$1," 22:00:00")</f>
-        <v>2023-02-01 22:00:00</v>
+        <v>2023-02-03 22:00:00</v>
       </c>
       <c r="L28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>consumption</v>
       </c>
       <c r="N28" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>non_profiled</v>
       </c>
       <c r="O28" s="3" t="str">
@@ -3193,46 +3178,46 @@
         <v>false</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="3"/>
-        <v>tariff-daily-1</v>
+        <f t="shared" si="4"/>
+        <v>tariff-hourly-1</v>
       </c>
       <c r="S28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0000000000800</v>
       </c>
       <c r="U28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Z28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="Z29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA29" t="s">
         <v>56</v>
       </c>
-      <c r="AA28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>57</v>
-      </c>
       <c r="AC29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
       <c r="I30" s="2"/>
       <c r="V30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="str" cm="1">
@@ -3240,7 +3225,7 @@
         <v>2023-01-31</v>
       </c>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
       <c r="I31" s="2"/>
       <c r="V31" s="2"/>
       <c r="Y31" s="2"/>
@@ -3251,175 +3236,175 @@
         <v>2023-02-01</v>
       </c>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.35">
       <c r="Y32" s="2"/>
       <c r="Z32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="str">
         <v>2023-02-02</v>
       </c>
     </row>
-    <row r="33" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y33" s="2"/>
       <c r="Z33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" t="str">
         <v>2023-02-03</v>
       </c>
     </row>
-    <row r="34" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y34" s="2"/>
       <c r="Z34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y35" s="2"/>
       <c r="Z35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y36" s="2"/>
       <c r="Z36" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y37" s="2"/>
       <c r="Z37" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
     </row>
-    <row r="41" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
     </row>
-    <row r="42" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
     </row>
-    <row r="44" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
     </row>
-    <row r="48" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:28" x14ac:dyDescent="0.35">
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:28" x14ac:dyDescent="0.35">
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:28" x14ac:dyDescent="0.35">
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:28" x14ac:dyDescent="0.35">
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:28" x14ac:dyDescent="0.35">
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:28" x14ac:dyDescent="0.35">
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
     </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:28" x14ac:dyDescent="0.35">
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="Y55" s="2"/>
@@ -3427,7 +3412,7 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
     </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:28" x14ac:dyDescent="0.35">
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="Y56" s="2"/>
@@ -3435,7 +3420,7 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3450,7 +3435,7 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3477,7 +3462,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
     </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3504,7 +3489,7 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
     </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -3531,7 +3516,7 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
     </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:28" x14ac:dyDescent="0.35">
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -3551,7 +3536,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:28" x14ac:dyDescent="0.35">
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -3571,7 +3556,7 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
     </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.35">
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -3591,7 +3576,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
     </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:28" x14ac:dyDescent="0.35">
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -3611,7 +3596,7 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
     </row>
-    <row r="65" spans="11:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="11:28" x14ac:dyDescent="0.35">
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -3631,7 +3616,7 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
     </row>
-    <row r="66" spans="11:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="11:28" x14ac:dyDescent="0.35">
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -3651,7 +3636,7 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
     </row>
-    <row r="67" spans="11:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="11:28" x14ac:dyDescent="0.35">
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -3696,355 +3681,355 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D2" s="5">
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="7" t="str">
         <f t="shared" ref="F2:F25" si="0">LEFT(E2,19)</f>
         <v>2023-02-01 23:00:00</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D3" s="5">
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2023-02-02 23:00:00</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D4" s="5">
         <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2023-02-02 23:00:00</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D5" s="5">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2023-02-02 23:00:00</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2023-01-31 23:00:00</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2023-01-31 23:00:00</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2023-01-31 23:00:00</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D9" s="5">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D10" s="5">
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2023-02-03 02:00:00</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2023-02-03 02:00:00</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D12" s="5">
         <v>7.6543210000000004</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D13" s="5">
         <v>666.66666599999996</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D14" s="5">
         <v>1E-3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2023-01-31 23:00:00</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2023-01-31 23:00:00</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D16" s="5">
         <v>666.66666599999996</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2023-02-02 23:00:00</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C17" s="2"/>
       <c r="D17" s="5"/>
       <c r="E17" s="1"/>
@@ -4053,7 +4038,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
       <c r="D18" s="5"/>
       <c r="E18" s="1"/>
@@ -4062,7 +4047,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
       <c r="D19" s="5"/>
       <c r="E19" s="1"/>
@@ -4071,7 +4056,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
       <c r="D20" s="5"/>
       <c r="E20" s="1"/>
@@ -4080,7 +4065,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
       <c r="D21" s="5"/>
       <c r="E21" s="1"/>
@@ -4089,7 +4074,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C22" s="2"/>
       <c r="D22" s="5"/>
       <c r="E22" s="1"/>
@@ -4098,7 +4083,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
       <c r="D23" s="5"/>
       <c r="E23" s="1"/>
@@ -4107,7 +4092,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C24" s="2"/>
       <c r="D24" s="5"/>
       <c r="E24" s="1"/>
@@ -4116,7 +4101,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
       <c r="D25" s="5"/>
       <c r="E25" s="1"/>
@@ -4138,44 +4123,44 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
       <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4183,10 +4168,10 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4201,18 +4186,18 @@
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3">
         <v>2.5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4227,18 +4212,18 @@
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3">
         <v>2.5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4253,18 +4238,18 @@
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3">
         <v>2.5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4279,18 +4264,18 @@
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4305,111 +4290,103 @@
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3">
-        <v>3.379</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v>consumption_from_grid</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="G7" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-01 02:00:00</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2023-02-03 02:00:00</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3">
-        <v>3.38</v>
+        <v>3357</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v>exchange</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="G8" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3">
-        <v>3.3780000000000001</v>
+        <v>40159</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E9" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="G9" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>71</v>
-      </c>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v/>
       </c>
       <c r="F10" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="G10" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-01 02:00:00</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -4427,7 +4404,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -4445,7 +4422,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="4" t="str">
@@ -4461,7 +4438,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -4479,7 +4456,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="4" t="str">
@@ -4495,112 +4472,122 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="D16" s="2"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3.379</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="E16" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>consumption</v>
       </c>
       <c r="F16" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>flex</v>
       </c>
       <c r="G16" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2023-02-01 02:00:00</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3">
-        <v>5</v>
+        <v>3.38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="E17" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption_from_grid</v>
+        <v>consumption</v>
       </c>
       <c r="F17" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>flex</v>
       </c>
       <c r="G17" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-03 02:00:00</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2023-02-01 02:00:00</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3">
-        <v>3.3570000000000002</v>
+        <v>3.3780000000000001</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>exchange</v>
+        <v>consumption</v>
       </c>
       <c r="F18" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>flex</v>
       </c>
       <c r="G18" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3">
-        <v>40.158999999999999</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E19" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v>consumption</v>
       </c>
       <c r="F19" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>flex</v>
       </c>
       <c r="G19" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3">
         <v>4.1210000000000004</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4615,18 +4602,18 @@
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4641,18 +4628,18 @@
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4667,18 +4654,18 @@
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4693,7 +4680,7 @@
         <v>2023-02-01 02:00:00</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="4" t="str">
@@ -4709,7 +4696,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="4" t="str">
@@ -4725,7 +4712,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
       <c r="D26" s="2"/>
       <c r="E26" s="4" t="str">
@@ -4757,89 +4744,89 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2">
         <v>800</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -4847,51 +4834,51 @@
         <v>800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2">
         <v>800</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4899,76 +4886,76 @@
         <v>800</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>800</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2">
         <v>800</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4976,24 +4963,24 @@
         <v>800</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5001,22 +4988,22 @@
         <v>800</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5024,24 +5011,24 @@
         <v>800</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5049,7 +5036,7 @@
         <v>801</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2">
         <v>801</v>
@@ -5061,7 +5048,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -5074,7 +5061,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -5087,7 +5074,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -5100,7 +5087,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -5113,7 +5100,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -5126,7 +5113,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -5139,7 +5126,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5152,7 +5139,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5165,7 +5152,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5178,7 +5165,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5191,7 +5178,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5204,7 +5191,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5217,7 +5204,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5230,7 +5217,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5243,7 +5230,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -5272,307 +5259,307 @@
       <selection activeCell="G12" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" s="1">
         <v>42400.958333333336</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1">
         <v>42400.958333333336</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1">
         <v>42400.958333333336</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="1">
         <v>42400.958333333336</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="1">
         <v>42400.958333333336</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="1">
         <v>42400.958333333336</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" s="1">
         <v>42400.958333333336</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" s="1">
         <v>42400.958333333336</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="1">
         <v>42400.958333333336</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F11" s="1">
         <v>42400.958333333336</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
         <v>116</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1">
         <v>42400.958333333336</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1">
         <v>42400.958333333336</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F14" s="1">
         <v>42400.958333333336</v>
@@ -5595,63 +5582,63 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="87" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -5670,21 +5657,21 @@
         <v>fee-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -5703,21 +5690,21 @@
         <v>fee-2--0000000000800--1000000000000--consumption_from_grid</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -5736,21 +5723,21 @@
         <v>fee-2--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -5769,21 +5756,21 @@
         <v>fee-3--0000000000800--2000000000000--production</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -5802,21 +5789,21 @@
         <v>subscription-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -5835,21 +5822,21 @@
         <v>subscription-2--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -5868,21 +5855,21 @@
         <v>subscription-2--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -5901,21 +5888,21 @@
         <v>subscription-2--0000000000800--2000000000000--production</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -5934,21 +5921,21 @@
         <v>subscription-3--0000000000800--2000000000000--own_production</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -5967,21 +5954,21 @@
         <v>tariff-hourly-1--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -6000,21 +5987,21 @@
         <v>tariff-hourly-1--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -6033,21 +6020,21 @@
         <v>tariff-hourly-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -6066,21 +6053,21 @@
         <v>tariff-hourly-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -6099,21 +6086,21 @@
         <v>tariff-hourly-2--0000000000800--1000000000000--consumption_from_grid</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -6132,21 +6119,21 @@
         <v>tariff-hourly-3--0000000000800--2000000000000--production</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -6165,21 +6152,21 @@
         <v>tariff-hourly-3--0000000000800--2000000000000--production</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -6198,21 +6185,21 @@
         <v>tariff-hourly-4-co_is_tax--6660000000666--1000000000000--consumption--flex</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -6231,21 +6218,21 @@
         <v>tariff-daily-1--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -6264,21 +6251,21 @@
         <v>tariff-daily-1--0000000000800--3000000000000--consumption--non_profiled</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -6297,21 +6284,21 @@
         <v>tariff-daily-1--0000000000800--1000000000000--consumption--flex</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -6330,21 +6317,21 @@
         <v>tariff-daily-2--0000000000800--2000000000000--production</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -6363,7 +6350,7 @@
         <v>tariff-daily-3-co_is_tax--6660000000666--1000000000000--consumption_from_grid</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -6386,7 +6373,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
